--- a/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>TTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43679</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43588</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43497</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43315</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43224</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43133</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42860</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>767500</v>
+      </c>
+      <c r="E8" s="3">
         <v>734400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>838700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>962000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>603000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>539300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>655800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>875300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>548200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>488600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>627900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>872800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>515800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>468400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>479400</v>
+      </c>
+      <c r="E9" s="3">
         <v>489300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>572700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>640700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>387300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>360200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>422200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>551200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>344000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>304400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>401200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>556500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>322400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>288100</v>
+      </c>
+      <c r="E10" s="3">
         <v>245100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>266000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>321300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>215700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>179100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>233600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>324100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>204200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>184200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>226700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>316300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>193400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,8 +942,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,8 +989,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1016,8 +1036,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1083,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>676400</v>
+      </c>
+      <c r="E17" s="3">
         <v>691100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>764800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>824300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>532900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>496300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>562900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>705000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>481300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>441200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>540200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>713500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>455300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>424800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>91100</v>
+      </c>
+      <c r="E18" s="3">
         <v>43300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>73900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>137700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>70100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>43000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>92900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>170300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>66900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>47400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>87700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>159300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>60500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,122 +1214,129 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E20" s="3">
         <v>8800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>4300</v>
       </c>
       <c r="L20" s="3">
         <v>4300</v>
       </c>
       <c r="M20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N20" s="3">
         <v>5400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>117100</v>
+      </c>
+      <c r="E21" s="3">
         <v>77400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>99200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>171700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>90300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>67800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>109700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>188800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>86400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>69000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>106300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>181000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>81000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E22" s="3">
         <v>8400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4700</v>
       </c>
       <c r="J22" s="3">
         <v>4700</v>
       </c>
       <c r="K22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="L22" s="3">
         <v>4800</v>
@@ -1305,104 +1345,113 @@
         <v>4800</v>
       </c>
       <c r="N22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="O22" s="3">
         <v>4700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E23" s="3">
         <v>43700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>71200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>137200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>70000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>43600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>93300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>169200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>66400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>46900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>88400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>158300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>59600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E24" s="3">
         <v>5500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>21600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>37900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>37800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E26" s="3">
         <v>38200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>59700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>115600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>59500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>39100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>78500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>131300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>55700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>33800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>68400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>120500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>45000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E27" s="3">
         <v>38200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>59700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>115600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>59500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>39100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>78500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>131300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>55700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>33800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>68400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>120500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>45000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,37 +1635,40 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
         <v>100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>900</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>500</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-33100</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1621,8 +1682,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-4300</v>
       </c>
       <c r="L32" s="3">
         <v>-4300</v>
       </c>
       <c r="M32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="N32" s="3">
         <v>-5400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E33" s="3">
         <v>38300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>60600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>115600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>59500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>39000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>79000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>131300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>22600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>33800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>68400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>120500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>45000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E35" s="3">
         <v>38300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>60600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>115600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>59500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>39000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>79000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>131300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>22600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>33800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>68400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>120500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>45000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43679</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43588</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43497</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43315</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43224</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43133</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42860</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,52 +2056,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>108900</v>
+      </c>
+      <c r="E41" s="3">
         <v>151800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>143300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>180100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>250000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>289100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>250900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>206100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>219700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>310300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>335000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>265200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>158900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>273600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2058,207 +2148,222 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>321200</v>
+      </c>
+      <c r="E43" s="3">
         <v>268800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>312200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>428600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>225500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>193200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>219500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>329600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>198700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>183100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>221600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>328500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>183900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>326500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>739000</v>
+      </c>
+      <c r="E44" s="3">
         <v>651700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>620600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>611300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>416700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>358300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>364500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>394800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>439300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>329000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>349000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>341600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>402100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E45" s="3">
         <v>50600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>54200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>50300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>41800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>54100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>38200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>47800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>43000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>37600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>42600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>41300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>36500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1220500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1122900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1130400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1270300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>933900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>894600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>873000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>978200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>859900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>948100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>976600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>781300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>25300</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2278,96 +2383,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>504400</v>
+      </c>
+      <c r="E48" s="3">
         <v>437300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>426400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>425400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>279300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>271500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>249500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>245300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>234400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>235200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>226900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>224300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>226900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1060100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>709800</v>
+      </c>
+      <c r="E49" s="3">
         <v>714600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>700400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>705500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>331100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>330900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>333100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>335400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>308300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>308800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>308900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>310200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>312000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>302900</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2571,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E52" s="3">
         <v>55700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>52500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>64800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>78500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>73900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>79200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>76700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>73200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>89900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>85500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>87700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>82700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2491600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2330500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2309700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2466000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1622800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1571000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1534800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1635700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1516800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1493800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1569500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1598800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1402900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1384600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,67 +2752,71 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E57" s="3">
         <v>319200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>304700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>391700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>281500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>256600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>229000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>303900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>266600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>211800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>211500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>273600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>232400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E58" s="3">
         <v>79900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>99900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>90000</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -2690,204 +2824,219 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>13000</v>
       </c>
       <c r="L58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="M58" s="3">
         <v>26300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>23100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>23900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>23000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>362400</v>
+      </c>
+      <c r="E59" s="3">
         <v>357800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>351900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>360100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>283500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>276100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>282600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>335500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>292900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>283800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>309400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>324900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>263700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>479800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>824300</v>
+      </c>
+      <c r="E60" s="3">
         <v>757000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>756400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>841800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>565000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>532600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>511700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>652400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>572500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>521800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>543900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>622400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>519100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>463800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>601000</v>
+      </c>
+      <c r="E61" s="3">
         <v>620900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>620800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>721100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>312600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>312500</v>
       </c>
       <c r="I61" s="3">
         <v>312500</v>
       </c>
       <c r="J61" s="3">
+        <v>312500</v>
+      </c>
+      <c r="K61" s="3">
         <v>299300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>302500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>305600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>308800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>312000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>315300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>328500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>154200</v>
+      </c>
+      <c r="E62" s="3">
         <v>93100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>88700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>97900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>50900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>56900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>60400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>60700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>61100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>49300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>56900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>56600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>55400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1579600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1471000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1465900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1660700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>928400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>902100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>884500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1012400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>936000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>876700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>909600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>991000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>889900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>834500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>837200</v>
+      </c>
+      <c r="E72" s="3">
         <v>784900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>763900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>724000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>613200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>587300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>568400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>538500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>490400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>534300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>578600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>535600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>443600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>480000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>912100</v>
+      </c>
+      <c r="E76" s="3">
         <v>859600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>843800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>805300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>694400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>668900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>650200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>623300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>580800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>617100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>659900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>607800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>513000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43679</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43588</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43497</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43315</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43224</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43133</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42860</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E81" s="3">
         <v>38300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>60600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>115600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>59500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>39000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>79000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>131300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>22600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>33800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>68400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>120500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>45000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,52 +3829,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E83" s="3">
         <v>25300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>15600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>18000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E89" s="3">
         <v>78300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>95100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>138000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>26000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>105400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>120900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>130300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>84100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>106200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>155000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>15400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>80300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4177,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-36100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-23400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-38200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-24600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-698700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-38400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-56100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-35600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,52 +4384,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-24100</v>
+        <v>-26900</v>
       </c>
       <c r="E96" s="3">
         <v>-24100</v>
       </c>
       <c r="F96" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-24000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-23900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-21200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-21100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-21300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-21400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-18800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-19000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-18900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-19000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,136 +4570,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-40300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-113700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>491800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-38300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-23300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-51900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-88700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-88100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-82900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-32600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-33500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-96300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-64700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E102" s="3">
         <v>8500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-36800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-69900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-39200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>38300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>44800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-90500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-24800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>69800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>106300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-114700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>TTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,235 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43952</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43679</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43588</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43497</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43315</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43224</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43133</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42860</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>929400</v>
+      </c>
+      <c r="E8" s="3">
         <v>767500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>734400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>838700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>962000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>603000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>539300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>655800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>875300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>548200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>488600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>627900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>872800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>515800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>468400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>622700</v>
+      </c>
+      <c r="E9" s="3">
         <v>479400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>489300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>572700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>640700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>387300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>360200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>422200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>551200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>344000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>304400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>401200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>556500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>322400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>306700</v>
+      </c>
+      <c r="E10" s="3">
         <v>288100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>245100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>266000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>321300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>215700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>179100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>233600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>324100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>204200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>184200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>226700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>316300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>193400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +911,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,8 +959,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,8 +1009,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,8 +1059,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,8 +1109,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>803600</v>
+      </c>
+      <c r="E17" s="3">
         <v>676400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>691100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>764800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>824300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>532900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>496300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>562900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>705000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>481300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>441200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>540200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>713500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>455300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>424800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>125800</v>
+      </c>
+      <c r="E18" s="3">
         <v>91100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>43300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>73900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>137700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>70100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>43000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>92900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>170300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>66900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>47400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>87700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>159300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>60500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,131 +1248,138 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E20" s="3">
         <v>3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>4300</v>
       </c>
       <c r="M20" s="3">
         <v>4300</v>
       </c>
       <c r="N20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="O20" s="3">
         <v>5400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>152800</v>
+      </c>
+      <c r="E21" s="3">
         <v>117100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>77400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>99200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>171700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>90300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>67800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>109700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>188800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>86400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>69000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>106300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>181000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>81000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E22" s="3">
         <v>8200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>4700</v>
       </c>
       <c r="K22" s="3">
         <v>4700</v>
       </c>
       <c r="L22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="M22" s="3">
         <v>4800</v>
@@ -1348,110 +1388,119 @@
         <v>4800</v>
       </c>
       <c r="O22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="P22" s="3">
         <v>4700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>121400</v>
+      </c>
+      <c r="E23" s="3">
         <v>86100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>43700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>71200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>137200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>70000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>43600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>93300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>169200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>66400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>46900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>88400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>158300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>59600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E24" s="3">
         <v>16000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>21600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>37900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>20000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>37800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E26" s="3">
         <v>70100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>38200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>59700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>115600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>59500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>39100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>78500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>131300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>55700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>33800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>68400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>120500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>45000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E27" s="3">
         <v>70100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>38200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>59700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>115600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>59500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>39100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>78500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>131300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>55700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>33800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>68400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>120500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>45000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,40 +1696,43 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>900</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>500</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-33100</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1685,8 +1746,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1846,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-4300</v>
       </c>
       <c r="M32" s="3">
         <v>-4300</v>
       </c>
       <c r="N32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="O32" s="3">
         <v>-5400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E33" s="3">
         <v>70100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>38300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>60600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>115600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>59500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>39000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>79000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>131300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>22600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>33800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>68400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>120500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>45000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E35" s="3">
         <v>70100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>38300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>60600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>115600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>59500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>39000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>79000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>131300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>22600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>33800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>68400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>120500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>45000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43952</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43679</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43588</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43497</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43315</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43224</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43133</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42860</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,55 +2143,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E41" s="3">
         <v>108900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>151800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>143300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>180100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>250000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>289100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>250900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>206100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>219700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>310300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>335000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>265200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>158900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>273600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2151,204 +2241,219 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400400</v>
+      </c>
+      <c r="E43" s="3">
         <v>321200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>268800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>312200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>428600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>225500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>193200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>219500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>329600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>198700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>183100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>221600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>328500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>183900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>326500</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>714200</v>
+      </c>
+      <c r="E44" s="3">
         <v>739000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>651700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>620600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>611300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>416700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>358300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>364500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>394800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>439300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>329000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>349000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>341600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>402100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E45" s="3">
         <v>51400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>50600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>54200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>50300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>41800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>54100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>38200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>47800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>43000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>37600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>42600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>41300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>36500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1374600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1220500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1122900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1130400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1270300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>933900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>894600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>873000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>978200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>859900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>948100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>976600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>781300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E47" s="3">
         <v>25300</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -2365,8 +2470,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2386,102 +2491,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>537900</v>
+      </c>
+      <c r="E48" s="3">
         <v>504400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>437300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>426400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>425400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>279300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>271500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>249500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>245300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>234400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>235200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>226900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>224300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>226900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1060100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>844100</v>
+      </c>
+      <c r="E49" s="3">
         <v>709800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>714600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>700400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>705500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>331100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>330900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>333100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>335400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>308300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>308800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>308900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>310200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>312000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>302900</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,55 +2691,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E52" s="3">
         <v>31600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>55700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>52500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>64800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>78500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>73900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>79200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>76700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>73200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>89900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>85500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>87700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>82700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2811500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2491600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2330500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2309700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2466000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1622800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1571000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1534800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1635700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1516800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1493800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1569500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1598800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1402900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1384600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,73 +2883,77 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>327400</v>
+      </c>
+      <c r="E57" s="3">
         <v>348000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>319200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>304700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>391700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>281500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>256600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>229000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>303900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>266600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>211800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>211500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>273600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>232400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>99900</v>
+      </c>
+      <c r="E58" s="3">
         <v>113900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>79900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>99900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>90000</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -2827,216 +2961,231 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>13000</v>
       </c>
       <c r="M58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="N58" s="3">
         <v>26300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>23100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>23900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>23000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>428500</v>
+      </c>
+      <c r="E59" s="3">
         <v>362400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>357800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>351900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>360100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>283500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>276100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>282600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>335500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>292900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>283800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>309400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>324900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>263700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>479800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>855700</v>
+      </c>
+      <c r="E60" s="3">
         <v>824300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>757000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>756400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>841800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>565000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>532600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>511700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>652400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>572500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>521800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>543900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>622400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>519100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>463800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>790900</v>
+      </c>
+      <c r="E61" s="3">
         <v>601000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>620900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>620800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>721100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>312600</v>
-      </c>
-      <c r="I61" s="3">
-        <v>312500</v>
       </c>
       <c r="J61" s="3">
         <v>312500</v>
       </c>
       <c r="K61" s="3">
+        <v>312500</v>
+      </c>
+      <c r="L61" s="3">
         <v>299300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>302500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>305600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>308800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>312000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>315300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>328500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>179900</v>
+      </c>
+      <c r="E62" s="3">
         <v>154200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>93100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>88700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>97900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>50900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>56900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>60400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>60700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>61100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>49300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>56900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>56600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>55400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1826500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1579600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1471000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1465900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1660700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>928400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>902100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>884500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1012400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>936000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>876700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>909600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>991000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>889900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>834500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>911500</v>
+      </c>
+      <c r="E72" s="3">
         <v>837200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>784900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>763900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>724000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>613200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>587300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>568400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>538500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>490400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>534300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>578600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>535600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>443600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>480000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>985000</v>
+      </c>
+      <c r="E76" s="3">
         <v>912100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>859600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>843800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>805300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>694400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>668900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>650200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>623300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>580800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>617100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>659900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>607800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>513000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43952</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43679</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43588</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43497</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43315</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43224</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43133</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42860</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E81" s="3">
         <v>70100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>38300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>60600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>115600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>59500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>39000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>79000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>131300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>22600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>33800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>68400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>120500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>45000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,8 +4028,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3839,46 +4038,49 @@
         <v>22800</v>
       </c>
       <c r="E83" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F83" s="3">
         <v>25300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>15600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>18000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>78300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>95100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>138000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>26000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>105400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>120900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>130300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>84100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>106200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>155000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>15400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>80300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,55 +4398,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-36100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-38200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-32900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-32200</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +4546,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-151800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-698700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-26800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-38400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-56100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-27700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-35600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,8 +4618,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4394,46 +4628,49 @@
         <v>-26900</v>
       </c>
       <c r="E96" s="3">
-        <v>-24100</v>
+        <v>-26900</v>
       </c>
       <c r="F96" s="3">
         <v>-24100</v>
       </c>
       <c r="G96" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-24000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-23900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-21200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-21100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-21300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-21400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-18800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-19000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-18900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,145 +4816,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-40300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-113700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>491800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-38300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-23300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-51900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-88700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-88100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-82900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-32600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-33500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-96300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-64700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>91100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-42900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-36800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-69900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-39200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>38300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>44800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-90500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-24800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>69800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>106300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-114700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>TTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,248 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43952</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43679</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43588</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43497</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43315</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43224</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43133</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42860</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>841000</v>
+      </c>
+      <c r="E8" s="3">
         <v>929400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>767500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>734400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>838700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>962000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>603000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>539300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>655800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>875300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>548200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>488600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>627900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>872800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>515800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>468400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>546400</v>
+      </c>
+      <c r="E9" s="3">
         <v>622700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>479400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>489300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>572700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>640700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>387300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>360200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>422200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>551200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>344000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>304400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>401200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>556500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>322400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>294600</v>
+      </c>
+      <c r="E10" s="3">
         <v>306700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>288100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>245100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>266000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>321300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>215700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>179100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>233600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>324100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>204200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>184200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>226700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>316300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>193400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +925,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +976,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,8 +1029,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,8 +1082,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1112,8 +1135,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>725000</v>
+      </c>
+      <c r="E17" s="3">
         <v>803600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>676400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>691100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>764800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>824300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>532900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>496300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>562900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>705000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>481300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>441200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>540200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>713500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>455300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>424800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E18" s="3">
         <v>125800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>91100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>43300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>73900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>137700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>70100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>43000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>92900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>170300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>66900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>47400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>87700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>159300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>60500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,140 +1282,147 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E20" s="3">
         <v>4200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>4300</v>
       </c>
       <c r="N20" s="3">
         <v>4300</v>
       </c>
       <c r="O20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="P20" s="3">
         <v>5400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>143600</v>
+      </c>
+      <c r="E21" s="3">
         <v>152800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>117100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>77400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>99200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>171700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>90300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>67800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>109700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>188800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>86400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>69000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>106300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>181000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>81000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E22" s="3">
         <v>8700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>4700</v>
       </c>
       <c r="L22" s="3">
         <v>4700</v>
       </c>
       <c r="M22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="N22" s="3">
         <v>4800</v>
@@ -1391,116 +1431,125 @@
         <v>4800</v>
       </c>
       <c r="P22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Q22" s="3">
         <v>4700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E23" s="3">
         <v>121400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>86100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>43700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>71200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>137200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>70000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>43600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>93300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>169200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>66400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>46900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>88400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>158300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>59600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E24" s="3">
         <v>22900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>21600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>37900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>37800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E26" s="3">
         <v>98400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>70100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>38200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>59700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>115600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>59500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>39100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>78500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>131300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>55700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>33800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>68400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>120500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>45000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E27" s="3">
         <v>98400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>70100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>38200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>59700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>115600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>59500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>39100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>78500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>131300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>55700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>33800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>68400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>120500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>45000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,8 +1757,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1710,32 +1771,32 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>900</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>500</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-33100</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1749,8 +1810,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,108 +1916,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-4300</v>
       </c>
       <c r="N32" s="3">
         <v>-4300</v>
       </c>
       <c r="O32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="P32" s="3">
         <v>-5400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E33" s="3">
         <v>98400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>70100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>38300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>60600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>115600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>59500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>39000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>79000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>131300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>22600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>33800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>68400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>120500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>45000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E35" s="3">
         <v>98400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>70100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>38300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>60600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>115600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>59500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>39000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>79000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>131300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>22600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>33800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>68400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>120500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>45000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43952</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43679</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43588</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43497</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43315</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43224</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43133</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42860</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,58 +2230,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>394100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>108900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>151800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>143300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>180100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>250000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>289100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>250900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>206100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>219700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>310300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>335000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>265200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>158900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>273600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2244,219 +2334,234 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>294700</v>
+      </c>
+      <c r="E43" s="3">
         <v>400400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>321200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>268800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>312200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>428600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>225500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>193200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>219500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>329600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>198700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>183100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>221600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>328500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>183900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>326500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>656200</v>
+      </c>
+      <c r="E44" s="3">
         <v>714200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>739000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>651700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>620600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>611300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>416700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>358300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>364500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>394800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>439300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>329000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>349000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>341600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>402100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E45" s="3">
         <v>59900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>51400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>50600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>54200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>50300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>41800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>54100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>38200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>47800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>43000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>37600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>42600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>41300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>36500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1384200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1374600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1220500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1122900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1130400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1270300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>933900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>894600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>873000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>978200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>859900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>948100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>976600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>781300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E47" s="3">
         <v>27800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>25300</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2473,8 +2578,8 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2494,108 +2599,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>539500</v>
+      </c>
+      <c r="E48" s="3">
         <v>537900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>504400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>437300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>426400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>425400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>279300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>271500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>249500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>245300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>234400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>235200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>226900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>224300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>226900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1060100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>837500</v>
+      </c>
+      <c r="E49" s="3">
         <v>844100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>709800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>714600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>700400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>705500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>331100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>330900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>333100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>335400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>308300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>308800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>308900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>310200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>312000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>302900</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,58 +2811,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E52" s="3">
         <v>27200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>31600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>55700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>52500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>64800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>78500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>73900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>79200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>76700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>73200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>89900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>85500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>87700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>82700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2813900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2811500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2491600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2330500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2309700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2466000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1622800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1571000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1534800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1635700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1516800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1493800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1569500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1598800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1402900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1384600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,79 +3014,83 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>268700</v>
+      </c>
+      <c r="E57" s="3">
         <v>327400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>348000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>319200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>304700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>391700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>281500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>256600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>229000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>303900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>266600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>211800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>211500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>273600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>232400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>108900</v>
+      </c>
+      <c r="E58" s="3">
         <v>99900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>113900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>79900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>99900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>90000</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -2964,228 +3098,243 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>13000</v>
       </c>
       <c r="N58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="O58" s="3">
         <v>26300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>23100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>23900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>23000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>419500</v>
+      </c>
+      <c r="E59" s="3">
         <v>428500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>362400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>357800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>351900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>360100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>283500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>276100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>282600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>335500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>292900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>283800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>309400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>324900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>263700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>479800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>797100</v>
+      </c>
+      <c r="E60" s="3">
         <v>855700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>824300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>757000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>756400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>841800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>565000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>532600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>511700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>652400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>572500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>521800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>543900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>622400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>519100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>463800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>782000</v>
+      </c>
+      <c r="E61" s="3">
         <v>790900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>601000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>620900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>620800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>721100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>312600</v>
-      </c>
-      <c r="J61" s="3">
-        <v>312500</v>
       </c>
       <c r="K61" s="3">
         <v>312500</v>
       </c>
       <c r="L61" s="3">
+        <v>312500</v>
+      </c>
+      <c r="M61" s="3">
         <v>299300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>302500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>305600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>308800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>312000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>315300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>328500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>180700</v>
+      </c>
+      <c r="E62" s="3">
         <v>179900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>154200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>93100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>88700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>97900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>50900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>56900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>60400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>60700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>61100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>49300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>56900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>56600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>55400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1759800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1826500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1579600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1471000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1465900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1660700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>928400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>902100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>884500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1012400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>936000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>876700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>909600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>991000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>889900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>834500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>981300</v>
+      </c>
+      <c r="E72" s="3">
         <v>911500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>837200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>784900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>763900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>724000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>613200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>587300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>568400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>538500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>490400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>534300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>578600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>535600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>443600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>480000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1054000</v>
+      </c>
+      <c r="E76" s="3">
         <v>985000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>912100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>859600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>843800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>805300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>694400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>668900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>650200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>623300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>580800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>617100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>659900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>607800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>513000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43952</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43679</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43588</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43497</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43315</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43224</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43133</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42860</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E81" s="3">
         <v>98400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>70100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>38300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>60600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>115600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>59500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>39000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>79000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>131300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>22600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>33800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>68400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>120500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>45000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,58 +4227,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>22800</v>
+        <v>24300</v>
       </c>
       <c r="E83" s="3">
         <v>22800</v>
       </c>
       <c r="F83" s="3">
+        <v>22800</v>
+      </c>
+      <c r="G83" s="3">
         <v>25300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>15600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>18000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>16500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>235000</v>
+      </c>
+      <c r="E89" s="3">
         <v>94200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-23300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>78300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>95100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>138000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>26000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>105400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>120900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>130300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>84100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>106200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>155000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>15400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>80300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,58 +4619,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-36100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-38200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-32200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,58 +4776,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-151800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-698700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-26800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-38400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-56100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-27700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-35600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,8 +4852,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4631,46 +4865,49 @@
         <v>-26900</v>
       </c>
       <c r="F96" s="3">
-        <v>-24100</v>
+        <v>-26900</v>
       </c>
       <c r="G96" s="3">
         <v>-24100</v>
       </c>
       <c r="H96" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-24000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-23900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-21200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-21100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-21300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-21400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-18800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-19000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-19000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,154 +5062,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E100" s="3">
         <v>150600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-40300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-113700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>491800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-38300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-23300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-51900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-88700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-88100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-82900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-32600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-33500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-96300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-64700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>194100</v>
+      </c>
+      <c r="E102" s="3">
         <v>91100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-42900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-36800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-69900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-39200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>38300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>44800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-90500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-24800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>69800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>106300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-114700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>TTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,248 +665,274 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43952</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43679</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43588</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43497</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43315</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43224</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43133</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42860</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>873000</v>
+      </c>
+      <c r="E8" s="3">
         <v>841000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>841000</v>
+      </c>
+      <c r="G8" s="3">
         <v>929400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>767500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>734400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>838700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>962000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>603000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>539300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>655800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>875300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>548200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>488600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>627900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>872800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>515800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>468400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>558000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>540600</v>
+      </c>
+      <c r="F9" s="3">
         <v>546400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>622700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>479400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>489300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>572700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>640700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>387300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>360200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>422200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>551200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>344000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>304400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>401200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>556500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>322400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>315100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>300400</v>
+      </c>
+      <c r="F10" s="3">
         <v>294600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>306700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>288100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>245100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>266000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>321300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>215700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>179100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>233600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>324100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>204200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>184200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>226700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>316300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>193400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +952,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,8 +1007,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,8 +1066,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1085,8 +1125,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1138,8 +1184,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1208,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>731500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>747500</v>
+      </c>
+      <c r="F17" s="3">
         <v>725000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>803600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>676400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>691100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>764800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>824300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>532900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>496300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>562900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>705000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>481300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>441200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>540200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>713500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>455300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>424800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>141500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>93500</v>
+      </c>
+      <c r="F18" s="3">
         <v>116000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>125800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>91100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>43300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>73900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>137700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>70100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>43000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>92900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>170300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>66900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>47400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>87700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>159300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>60500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,273 +1349,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F20" s="3">
         <v>3300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>8800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>6300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>6200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>4700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>5500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>5100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>4300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>4300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>5400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>3900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>167400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>122400</v>
+      </c>
+      <c r="F21" s="3">
         <v>143600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>152800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>117100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>77400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>99200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>171700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>90300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>67800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>109700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>188800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>86400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>69000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>106300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>181000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>81000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F22" s="3">
         <v>8300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>8700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>8200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>8400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>9000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>6700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>4700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>4900</v>
       </c>
       <c r="L22" s="3">
         <v>4700</v>
       </c>
       <c r="M22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="N22" s="3">
         <v>4700</v>
       </c>
-      <c r="N22" s="3">
-        <v>4800</v>
-      </c>
       <c r="O22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="P22" s="3">
         <v>4800</v>
       </c>
       <c r="Q22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="R22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="S22" s="3">
         <v>4700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>4900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>135800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>88600</v>
+      </c>
+      <c r="F23" s="3">
         <v>111000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>121400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>86100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>43700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>71200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>137200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>70000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>43600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>93300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>169200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>66400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>46900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>88400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>158300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>59600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F24" s="3">
         <v>22000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>22900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>16000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>5500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>11600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>21600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>10500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>4400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>14800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>37900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>10700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>13100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>20000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>37800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>14600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1699,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>72200</v>
+      </c>
+      <c r="F26" s="3">
         <v>89000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>98400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>70100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>38200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>59700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>115600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>59500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>39100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>78500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>131300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>55700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>33800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>68400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>120500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>45000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>72200</v>
+      </c>
+      <c r="F27" s="3">
         <v>89000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>98400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>70100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>38200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>59700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>115600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>59500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>39100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>78500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>131300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>55700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>33800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>68400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>120500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>45000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,8 +1876,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1774,35 +1896,35 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>900</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>500</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-33100</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1813,8 +1935,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1994,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,114 +2053,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-8800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-6300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-6200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-4700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-5500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-5100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-4300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-4300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-3900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>72200</v>
+      </c>
+      <c r="F33" s="3">
         <v>89000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>98400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>70100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>38300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>60600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>115600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>59500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>39000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>79000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>131300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>22600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>33800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>68400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>120500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>45000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2230,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>72200</v>
+      </c>
+      <c r="F35" s="3">
         <v>89000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>98400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>70100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>38300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>60600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>115600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>59500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>39000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>79000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>131300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>22600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>33800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>68400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>120500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>45000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43952</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43679</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43588</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43497</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43315</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43224</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43133</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42860</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2380,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,61 +2403,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>433400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>479900</v>
+      </c>
+      <c r="F41" s="3">
         <v>394100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>108900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>151800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>143300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>180100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>250000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>289100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>250900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>206100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>219700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>310300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>335000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>265200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>158900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>273600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2337,237 +2517,267 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>306900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>261100</v>
+      </c>
+      <c r="F43" s="3">
         <v>294700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>400400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>321200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>268800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>312200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>428600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>225500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>193200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>219500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>329600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>198700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>183100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>221600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>328500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>183900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>326500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>675300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>652400</v>
+      </c>
+      <c r="F44" s="3">
         <v>656200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>714200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>739000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>651700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>620600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>611300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>416700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>358300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>364500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>394800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>439300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>329000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>349000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>341600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>402100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>34200</v>
+      </c>
+      <c r="F45" s="3">
         <v>39200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>59900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>51400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>50600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>54200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>50300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>41800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>54100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>38200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>47800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>43000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>37600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>42600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>41300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>36500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1456700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1427600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1384200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1374600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1220500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1122900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1130400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1270300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>933900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>894600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>873000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>978200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>900800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>859900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>948100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>976600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>781300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>19700</v>
+      </c>
+      <c r="F47" s="3">
         <v>22600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>27800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>25300</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -2581,11 +2791,11 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2602,114 +2812,132 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>532600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>546700</v>
+      </c>
+      <c r="F48" s="3">
         <v>539500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>537900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>504400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>437300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>426400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>425400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>279300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>271500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>249500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>245300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>234400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>235200</v>
-      </c>
-      <c r="P48" s="3">
-        <v>226900</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>224300</v>
       </c>
       <c r="R48" s="3">
         <v>226900</v>
       </c>
       <c r="S48" s="3">
+        <v>224300</v>
+      </c>
+      <c r="T48" s="3">
+        <v>226900</v>
+      </c>
+      <c r="U48" s="3">
         <v>1060100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>832800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>832400</v>
+      </c>
+      <c r="F49" s="3">
         <v>837500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>844100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>709800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>714600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>700400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>705500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>331100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>330900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>333100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>335400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>308300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>308800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>308900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>310200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>312000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>302900</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2989,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,61 +3048,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>26800</v>
+      </c>
+      <c r="F52" s="3">
         <v>30000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>27200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>31600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>55700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>52500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>64800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>78500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>73900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>79200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>76700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>73200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>89900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>85500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>87700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>82700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3166,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2875100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2853200</v>
+      </c>
+      <c r="F54" s="3">
         <v>2813900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2811500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2491600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2330500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2309700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2466000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1622800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1571000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1534800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1635700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1516800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1493800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1569500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1598800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1402900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1384600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3252,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,326 +3275,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>364400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>364000</v>
+      </c>
+      <c r="F57" s="3">
         <v>268700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>327400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>348000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>319200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>304700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>391700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>281500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>256600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>229000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>303900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>266600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>211800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>211500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>273600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>232400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>108900</v>
+        <v>10000</v>
       </c>
       <c r="E58" s="3">
         <v>99900</v>
       </c>
       <c r="F58" s="3">
+        <v>108900</v>
+      </c>
+      <c r="G58" s="3">
+        <v>99900</v>
+      </c>
+      <c r="H58" s="3">
         <v>113900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>79900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>99900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>90000</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>13000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>13000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>26300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>23100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>23900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>23000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>445200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>392000</v>
+      </c>
+      <c r="F59" s="3">
         <v>419500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>428500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>362400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>357800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>351900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>360100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>283500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>276100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>282600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>335500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>292900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>283800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>309400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>324900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>263700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>479800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>819500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>855800</v>
+      </c>
+      <c r="F60" s="3">
         <v>797100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>855700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>824300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>757000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>756400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>841800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>565000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>532600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>511700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>652400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>572500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>521800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>543900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>622400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>519100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>463800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>691400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>691300</v>
+      </c>
+      <c r="F61" s="3">
         <v>782000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>790900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>601000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>620900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>620800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>721100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>312600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>312500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>312500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>299300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>302500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>305600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>308800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>312000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>315300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>328500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>184500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>191400</v>
+      </c>
+      <c r="F62" s="3">
         <v>180700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>179900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>154200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>93100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>88700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>97900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>50900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>56900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>60400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>60700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>61100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>49300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>56900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>56600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>55400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3684,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3743,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3802,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1695400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1738400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1759800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1826500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1579600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1471000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1465900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1660700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>928400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>902100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>884500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1012400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>936000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>876700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>909600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>991000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>889900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>834500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3888,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3943,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +4002,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +4061,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +4120,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1104300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1041500</v>
+      </c>
+      <c r="F72" s="3">
         <v>981300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>911500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>837200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>784900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>763900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>724000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>613200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>587300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>568400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>538500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>490400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>534300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>578600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>535600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>443600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>480000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4238,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4297,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4356,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1179700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1114800</v>
+      </c>
+      <c r="F76" s="3">
         <v>1054000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>985000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>912100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>859600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>843800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>805300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>694400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>668900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>650200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>623300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>580800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>617100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>659900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>607800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>513000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4474,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43952</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43679</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43588</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43497</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43315</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43224</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43133</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42860</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>72200</v>
+      </c>
+      <c r="F81" s="3">
         <v>89000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>98400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>70100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>38300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>60600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>115600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>59500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>39000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>79000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>131300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>22600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>33800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>68400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>120500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>45000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,61 +4624,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>25800</v>
+      </c>
+      <c r="F83" s="3">
         <v>24300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>22800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>22800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>25300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>19000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>27900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>15600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>19400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>11800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>14900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>15200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>17300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>13200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>18000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>16500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4738,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4797,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4856,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4915,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4974,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>233500</v>
+      </c>
+      <c r="F89" s="3">
         <v>235000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>94200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-23300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>78300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>95100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>138000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>26000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>105400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>120900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>130300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>8100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>84100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>106200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>155000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>15400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>80300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,61 +5060,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-19500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-15300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-11800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-36100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-23400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-19200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-14200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-38200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-16600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-24600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-10800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-21700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-32900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-11600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-32200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +5174,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,61 +5233,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-21100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-151800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-11800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-28800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-18600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-698700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-26800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-38400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-22700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-56100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-10800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-27700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-10900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-35600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,61 +5319,69 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-26900</v>
+        <v>-28400</v>
       </c>
       <c r="E96" s="3">
-        <v>-26900</v>
+        <v>-27000</v>
       </c>
       <c r="F96" s="3">
         <v>-26900</v>
       </c>
       <c r="G96" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="I96" s="3">
         <v>-24100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-24100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-24000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-23900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-21200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-21100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-21300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-21400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-18800</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-18900</v>
       </c>
       <c r="R96" s="3">
         <v>-19000</v>
       </c>
       <c r="S96" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="T96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5433,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5492,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,163 +5551,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-116800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-24000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>150600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-7500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-40300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-113700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>491800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-38300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-23300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-51900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-88700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-88100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-82900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-32600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-33500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-96300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-64700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>500</v>
+      </c>
+      <c r="F101" s="3">
         <v>4200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-5500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>7800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-1700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>1800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>85800</v>
+      </c>
+      <c r="F102" s="3">
         <v>194100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>91100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-42900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>8500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-36800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-69900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-39200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>38300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>44800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-13600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-90500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-24800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>69800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>106300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-114700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>TTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,274 +665,286 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44225</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43952</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43679</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43588</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43497</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43315</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43224</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43133</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42951</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42860</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42769</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1149100</v>
+      </c>
+      <c r="E8" s="3">
         <v>873000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>841000</v>
       </c>
       <c r="F8" s="3">
         <v>841000</v>
       </c>
       <c r="G8" s="3">
+        <v>841000</v>
+      </c>
+      <c r="H8" s="3">
         <v>929400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>767500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>734400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>838700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>962000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>603000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>539300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>655800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>875300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>548200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>488600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>627900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>872800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>515800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>468400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>746200</v>
+      </c>
+      <c r="E9" s="3">
         <v>558000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>540600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>546400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>622700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>479400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>489300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>572700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>640700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>387300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>360200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>422200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>551200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>344000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>304400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>401200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>556500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>322400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>402900</v>
+      </c>
+      <c r="E10" s="3">
         <v>315100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>294600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>306700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>288100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>245100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>266000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>321300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>215700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>179100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>233600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>324100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>204200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>184200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>226700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>316300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>193400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -954,8 +966,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1013,8 +1026,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1072,8 +1088,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1131,8 +1150,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1190,8 +1212,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1210,126 +1235,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>968400</v>
+      </c>
+      <c r="E17" s="3">
         <v>731500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>747500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>725000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>803600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>676400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>691100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>764800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>824300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>532900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>496300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>562900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>705000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>481300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>441200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>540200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>713500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>455300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>424800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>180700</v>
+      </c>
+      <c r="E18" s="3">
         <v>141500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>93500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>116000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>125800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>91100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>43300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>73900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>137700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>70100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>43000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>92900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>170300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>66900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>47400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>87700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>159300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>60500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1351,167 +1383,174 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>4300</v>
       </c>
       <c r="Q20" s="3">
         <v>4300</v>
       </c>
       <c r="R20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S20" s="3">
         <v>5400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>209500</v>
+      </c>
+      <c r="E21" s="3">
         <v>167400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>122400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>143600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>152800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>117100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>77400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>99200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>171700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>90300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>67800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>109700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>188800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>86400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>69000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>106300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>181000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>81000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E22" s="3">
         <v>7500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4900</v>
-      </c>
-      <c r="N22" s="3">
-        <v>4700</v>
       </c>
       <c r="O22" s="3">
         <v>4700</v>
       </c>
       <c r="P22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="Q22" s="3">
         <v>4800</v>
@@ -1520,134 +1559,143 @@
         <v>4800</v>
       </c>
       <c r="S22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="T22" s="3">
         <v>4700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>177200</v>
+      </c>
+      <c r="E23" s="3">
         <v>135800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>88600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>111000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>121400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>86100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>43700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>71200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>137200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>70000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>43600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>93300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>169200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>66400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>46900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>88400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>158300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>59600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E24" s="3">
         <v>24500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>22000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>22900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>37900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>37800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>14600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1705,126 +1753,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E26" s="3">
         <v>111300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>72200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>89000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>98400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>70100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>38200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>59700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>115600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>59500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>39100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>78500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>131300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>55700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>33800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>68400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>120500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>45000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E27" s="3">
         <v>111300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>72200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>89000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>98400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>70100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>38200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>59700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>115600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>59500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>39100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>78500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>131300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>55700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>33800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>68400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>120500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>45000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1882,8 +1939,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1902,32 +1962,32 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>900</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>500</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-33100</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1941,8 +2001,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2000,8 +2063,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2059,126 +2125,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-4300</v>
       </c>
       <c r="Q32" s="3">
         <v>-4300</v>
       </c>
       <c r="R32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="S32" s="3">
         <v>-5400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E33" s="3">
         <v>111300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>72200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>89000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>98400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>70100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>38300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>60600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>115600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>59500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>39000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>79000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>131300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>22600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>33800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>68400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>120500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>45000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2236,131 +2311,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E35" s="3">
         <v>111300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>72200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>89000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>98400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>70100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>38300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>60600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>115600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>59500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>39000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>79000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>131300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>22600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>33800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>68400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>120500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>45000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44225</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43952</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43679</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43588</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43497</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43315</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43224</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43133</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42951</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42860</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42769</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2382,8 +2466,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2405,67 +2490,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>497600</v>
+      </c>
+      <c r="E41" s="3">
         <v>433400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>479900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>394100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>108900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>151800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>143300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>180100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>250000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>289100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>250900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>206100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>219700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>310300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>335000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>265200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>158900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>273600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2523,264 +2612,279 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>391200</v>
+      </c>
+      <c r="E43" s="3">
         <v>306900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>261100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>294700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>321200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>268800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>312200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>428600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>225500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>193200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>219500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>329600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>198700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>183100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>221600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>328500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>183900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>326500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>628800</v>
+      </c>
+      <c r="E44" s="3">
         <v>675300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>652400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>656200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>714200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>739000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>651700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>620600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>611300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>416700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>358300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>364500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>394800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>439300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>329000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>349000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>341600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>402100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E45" s="3">
         <v>41200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>34200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>39200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>59900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>51400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>50600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>54200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>50300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>41800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>54100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>38200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>47800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>43000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>37600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>42600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>41300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>36500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1559500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1456700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1427600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1384200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1374600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1220500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1122900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1130400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1270300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>933900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>894600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>873000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>978200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>859900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>948100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>976600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>781300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E47" s="3">
         <v>23000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>19700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>22600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>27800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>25300</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -2797,8 +2901,8 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2818,126 +2922,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>527300</v>
+      </c>
+      <c r="E48" s="3">
         <v>532600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>546700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>539500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>537900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>504400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>437300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>426400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>425400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>279300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>271500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>249500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>245300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>234400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>235200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>226900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>224300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>226900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1060100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>855200</v>
+      </c>
+      <c r="E49" s="3">
         <v>832800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>832400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>837500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>844100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>709800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>714600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>700400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>705500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>331100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>330900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>333100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>335400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>308300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>308800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>308900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>310200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>312000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>302900</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2995,8 +3108,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3054,67 +3170,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E52" s="3">
         <v>30100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>26800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>27200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>31600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>55700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>52500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>64800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>78500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>73900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>79200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>76700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>73200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>89900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>85500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>87700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>82700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3172,67 +3294,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2996100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2875100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2853200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2813900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2811500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2491600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2330500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2309700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2466000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1622800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1571000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1534800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1635700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1516800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1493800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1569500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1598800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1402900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1384600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3254,8 +3382,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3277,97 +3406,101 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>421700</v>
+      </c>
+      <c r="E57" s="3">
         <v>364400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>364000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>268700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>327400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>348000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>319200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>304700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>391700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>281500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>256600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>229000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>303900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>266600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>211800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>211500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>273600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>232400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E58" s="3">
         <v>10000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>99900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>108900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>99900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>113900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>79900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>99900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>90000</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -3375,264 +3508,279 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>13000</v>
       </c>
       <c r="Q58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="R58" s="3">
         <v>26300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>23100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>23900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>23000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>467200</v>
+      </c>
+      <c r="E59" s="3">
         <v>445200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>392000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>419500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>428500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>362400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>357800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>351900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>360100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>283500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>276100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>282600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>335500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>292900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>283800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>309400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>324900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>263700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>479800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>988900</v>
+      </c>
+      <c r="E60" s="3">
         <v>819500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>855800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>797100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>855700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>824300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>757000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>756400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>841800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>565000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>532600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>511700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>652400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>572500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>521800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>543900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>622400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>519100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>463800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>591500</v>
+      </c>
+      <c r="E61" s="3">
         <v>691400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>691300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>782000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>790900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>601000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>620900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>620800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>721100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>312600</v>
-      </c>
-      <c r="M61" s="3">
-        <v>312500</v>
       </c>
       <c r="N61" s="3">
         <v>312500</v>
       </c>
       <c r="O61" s="3">
+        <v>312500</v>
+      </c>
+      <c r="P61" s="3">
         <v>299300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>302500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>305600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>308800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>312000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>315300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>328500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>186300</v>
+      </c>
+      <c r="E62" s="3">
         <v>184500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>191400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>180700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>179900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>154200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>93100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>88700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>97900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>50900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>56900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>60400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>60700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>61100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>49300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>56900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>56600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>55400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3690,8 +3838,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3749,8 +3900,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3808,67 +3962,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1766700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1695400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1738400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1759800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1826500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1579600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1471000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1465900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1660700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>928400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>902100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>884500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1012400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>936000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>876700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>909600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>991000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>889900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>834500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3890,8 +4050,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3949,8 +4110,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4008,8 +4172,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4067,8 +4234,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4126,67 +4296,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1151800</v>
+      </c>
+      <c r="E72" s="3">
         <v>1104300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1041500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>981300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>911500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>837200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>784900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>763900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>724000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>613200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>587300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>568400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>538500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>490400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>534300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>578600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>535600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>443600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>480000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4244,8 +4420,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4303,8 +4482,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4362,67 +4544,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1229400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1179700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1114800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1054000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>985000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>912100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>859600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>843800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>805300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>694400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>668900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>650200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>623300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>580800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>617100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>659900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>607800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>513000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4480,131 +4668,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44225</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43952</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43679</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43588</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43497</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43315</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43224</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43133</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42951</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42860</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42769</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E81" s="3">
         <v>111300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>72200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>89000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>98400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>70100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>38300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>60600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>115600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>59500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>39000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>79000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>131300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>22600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>33800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>68400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>120500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>45000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4626,67 +4823,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E83" s="3">
         <v>24100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>25800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>24300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>22800</v>
       </c>
       <c r="H83" s="3">
         <v>22800</v>
       </c>
       <c r="I83" s="3">
+        <v>22800</v>
+      </c>
+      <c r="J83" s="3">
         <v>25300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>27900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>17300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>18000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>16500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4744,8 +4945,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4803,8 +5007,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4862,8 +5069,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4921,8 +5131,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4980,67 +5193,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>223600</v>
+      </c>
+      <c r="E89" s="3">
         <v>95000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>233500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>235000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>94200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-23300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>78300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>95100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>138000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>105400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>120900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>130300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>84100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>106200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>155000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>15400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>80300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5062,67 +5281,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-31400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-38200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-24600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-21700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-32900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-32200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5180,8 +5403,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5239,67 +5465,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-31400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-151800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-28800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-698700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-38400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-56100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-27700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-35600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5321,19 +5553,20 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-28400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-27000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-26900</v>
       </c>
       <c r="G96" s="3">
         <v>-26900</v>
@@ -5342,46 +5575,49 @@
         <v>-26900</v>
       </c>
       <c r="I96" s="3">
-        <v>-24100</v>
+        <v>-26900</v>
       </c>
       <c r="J96" s="3">
         <v>-24100</v>
       </c>
       <c r="K96" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="L96" s="3">
         <v>-24000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-23900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-21200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-21100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-21300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-18800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-19000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-18900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-19000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5439,8 +5675,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5498,8 +5737,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5557,181 +5799,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-111100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-143000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-116800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-24000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>150600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-40300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-113700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>491800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-38300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-23300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-51900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-88700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-88100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-82900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-32600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-33500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-96300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-64700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>3600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>7800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-46500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>85800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>194100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>91100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-42900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-36800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-69900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-39200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>38300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>44800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-90500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-24800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>69800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>106300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-114700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>TTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,286 +665,299 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44407</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44225</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43952</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43679</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43588</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43497</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43315</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43224</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43133</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42951</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42860</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42769</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>976800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1149100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>873000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>841000</v>
       </c>
       <c r="G8" s="3">
         <v>841000</v>
       </c>
       <c r="H8" s="3">
+        <v>841000</v>
+      </c>
+      <c r="I8" s="3">
         <v>929400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>767500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>734400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>838700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>962000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>603000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>539300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>655800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>875300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>548200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>488600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>627900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>872800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>515800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>468400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>645700</v>
+      </c>
+      <c r="E9" s="3">
         <v>746200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>558000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>540600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>546400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>622700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>479400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>489300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>572700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>640700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>387300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>360200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>422200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>551200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>344000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>304400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>401200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>556500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>322400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>331100</v>
+      </c>
+      <c r="E10" s="3">
         <v>402900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>315100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>294600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>306700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>288100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>245100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>266000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>321300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>215700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>179100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>233600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>324100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>204200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>184200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>226700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>316300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>193400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -967,8 +980,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1029,8 +1043,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1091,8 +1108,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1153,8 +1173,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1215,8 +1238,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1236,132 +1262,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>854900</v>
+      </c>
+      <c r="E17" s="3">
         <v>968400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>731500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>747500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>725000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>803600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>676400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>691100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>764800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>824300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>532900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>496300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>562900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>705000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>481300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>441200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>540200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>713500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>455300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>424800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>121900</v>
+      </c>
+      <c r="E18" s="3">
         <v>180700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>141500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>93500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>116000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>125800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>91100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>43300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>73900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>137700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>70100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>43000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>92900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>170300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>66900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>47400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>87700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>159300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>60500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1384,176 +1417,183 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>4300</v>
       </c>
       <c r="R20" s="3">
         <v>4300</v>
       </c>
       <c r="S20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="T20" s="3">
         <v>5400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E21" s="3">
         <v>209500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>167400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>122400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>143600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>152800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>117100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>77400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>99200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>171700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>90300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>67800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>109700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>188800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>86400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>69000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>106300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>181000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>81000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E22" s="3">
         <v>7100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4900</v>
-      </c>
-      <c r="O22" s="3">
-        <v>4700</v>
       </c>
       <c r="P22" s="3">
         <v>4700</v>
       </c>
       <c r="Q22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="R22" s="3">
         <v>4800</v>
@@ -1562,140 +1602,149 @@
         <v>4800</v>
       </c>
       <c r="T22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="U22" s="3">
         <v>4700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E23" s="3">
         <v>177200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>135800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>88600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>111000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>121400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>86100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>43700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>71200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>137200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>70000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>43600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>93300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>169200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>66400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>46900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>88400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>158300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>59600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E24" s="3">
         <v>35100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>22000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>22900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>37900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>37800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>14600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1756,132 +1805,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E26" s="3">
         <v>142200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>111300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>72200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>89000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>98400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>70100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>38200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>59700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>115600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>59500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>39100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>78500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>131300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>55700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>33800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>68400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>120500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>45000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E27" s="3">
         <v>142200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>111300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>72200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>89000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>98400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>70100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>38200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>59700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>115600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>59500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>39100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>78500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>131300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>55700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>33800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>68400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>120500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>45000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1942,8 +2000,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1965,32 +2026,32 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>900</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>500</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-33100</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2004,8 +2065,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2066,8 +2130,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2128,132 +2195,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-4300</v>
       </c>
       <c r="R32" s="3">
         <v>-4300</v>
       </c>
       <c r="S32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="T32" s="3">
         <v>-5400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E33" s="3">
         <v>142200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>111300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>72200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>89000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>98400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>70100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>38300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>60600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>115600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>59500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>39000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>79000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>131300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>22600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>33800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>68400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>120500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>45000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2314,137 +2390,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E35" s="3">
         <v>142200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>111300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>72200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>89000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>98400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>70100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>38300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>60600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>115600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>59500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>39000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>79000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>131300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>22600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>33800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>68400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>120500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>45000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44407</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44225</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43952</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43679</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43588</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43497</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43315</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43224</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43133</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42951</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42860</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42769</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2467,8 +2552,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2491,70 +2577,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>535300</v>
+      </c>
+      <c r="E41" s="3">
         <v>497600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>433400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>479900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>394100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>108900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>151800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>143300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>180100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>250000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>289100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>250900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>206100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>219700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>310300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>335000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>265200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>158900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>273600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2615,279 +2705,294 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>301200</v>
+      </c>
+      <c r="E43" s="3">
         <v>391200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>306900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>261100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>294700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>321200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>268800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>312200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>428600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>225500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>193200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>219500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>329600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>198700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>183100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>221600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>328500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>183900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>326500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>665600</v>
+      </c>
+      <c r="E44" s="3">
         <v>628800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>675300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>652400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>656200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>714200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>739000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>651700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>620600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>611300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>416700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>358300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>364500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>394800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>439300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>329000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>349000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>341600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>402100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E45" s="3">
         <v>41800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>41200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>34200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>39200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>59900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>51400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>50600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>54200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>50300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>41800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>54100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>38200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>47800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>43000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>37600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>42600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>41300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>36500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1545800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1559500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1456700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1427600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1384200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1374600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1220500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1122900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1130400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1270300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>933900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>894600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>873000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>978200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>900800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>859900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>948100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>976600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>781300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E47" s="3">
         <v>25300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>23000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>19700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>22600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>27800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>25300</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2904,8 +3009,8 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2925,132 +3030,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>529200</v>
+      </c>
+      <c r="E48" s="3">
         <v>527300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>532600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>546700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>539500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>537900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>504400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>437300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>426400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>425400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>279300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>271500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>249500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>245300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>234400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>235200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>226900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>224300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>226900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1060100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>848500</v>
+      </c>
+      <c r="E49" s="3">
         <v>855200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>832800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>832400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>837500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>844100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>709800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>714600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>700400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>705500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>331100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>330900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>333100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>335400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>308300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>308800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>308900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>310200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>312000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>302900</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3111,8 +3225,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3173,70 +3290,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E52" s="3">
         <v>28800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>26800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>30000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>27200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>31600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>55700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>52500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>64800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>78500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>73900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>79200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>76700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>73200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>89900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>85500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>87700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>82700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3297,70 +3420,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2968000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2996100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2875100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2853200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2813900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2811500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2491600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2330500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2309700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2466000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1622800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1571000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1534800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1635700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1516800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1493800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1569500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1598800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1402900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1384600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3383,8 +3512,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3407,103 +3537,107 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>411400</v>
+      </c>
+      <c r="E57" s="3">
         <v>421700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>364400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>364000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>268700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>327400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>348000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>319200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>304700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>391700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>281500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>256600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>229000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>303900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>266600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>211800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>211500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>273600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>232400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>104200</v>
+      </c>
+      <c r="E58" s="3">
         <v>100000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>99900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>108900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>99900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>113900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>79900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>99900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>90000</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
@@ -3511,276 +3645,291 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>13000</v>
       </c>
       <c r="R58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="S58" s="3">
         <v>26300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>23100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>23900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>23000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>442800</v>
+      </c>
+      <c r="E59" s="3">
         <v>467200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>445200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>392000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>419500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>428500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>362400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>357800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>351900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>360100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>283500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>276100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>282600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>335500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>292900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>283800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>309400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>324900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>263700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>479800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>958400</v>
+      </c>
+      <c r="E60" s="3">
         <v>988900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>819500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>855800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>797100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>855700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>824300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>757000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>756400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>841800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>565000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>532600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>511700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>652400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>572500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>521800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>543900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>622400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>519100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>463800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>587300</v>
+      </c>
+      <c r="E61" s="3">
         <v>591500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>691400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>691300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>782000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>790900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>601000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>620900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>620800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>721100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>312600</v>
-      </c>
-      <c r="N61" s="3">
-        <v>312500</v>
       </c>
       <c r="O61" s="3">
         <v>312500</v>
       </c>
       <c r="P61" s="3">
+        <v>312500</v>
+      </c>
+      <c r="Q61" s="3">
         <v>299300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>302500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>305600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>308800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>312000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>315300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>328500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>185100</v>
+      </c>
+      <c r="E62" s="3">
         <v>186300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>184500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>191400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>180700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>179900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>154200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>93100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>88700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>97900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>50900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>56900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>60400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>60700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>61100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>49300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>56900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>56600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>55400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3841,8 +3990,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3903,8 +4055,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3965,70 +4120,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1730900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1766700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1695400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1738400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1759800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1826500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1579600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1471000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1465900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1660700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>928400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>902100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>884500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1012400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>936000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>876700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>909600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>991000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>889900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>834500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4051,8 +4212,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4113,8 +4275,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4175,8 +4340,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4237,8 +4405,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4299,70 +4470,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1157400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1151800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1104300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1041500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>981300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>911500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>837200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>784900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>763900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>724000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>613200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>587300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>568400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>538500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>490400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>534300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>578600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>535600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>443600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>480000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4423,8 +4600,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4485,8 +4665,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4547,70 +4730,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1237200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1229400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1179700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1114800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1054000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>985000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>912100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>859600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>843800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>805300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>694400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>668900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>650200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>623300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>580800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>617100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>659900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>607800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>513000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4671,137 +4860,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44407</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44225</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43952</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43679</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43588</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43497</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43315</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43224</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43133</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42951</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42860</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42769</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E81" s="3">
         <v>142200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>111300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>72200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>89000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>98400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>70100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>38300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>60600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>115600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>59500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>39000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>79000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>131300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>22600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>33800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>68400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>120500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>45000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4824,70 +5022,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E83" s="3">
         <v>25100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>25800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>24300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>22800</v>
       </c>
       <c r="I83" s="3">
         <v>22800</v>
       </c>
       <c r="J83" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K83" s="3">
         <v>25300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>27900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>17300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>18000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>16500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4948,8 +5150,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5010,8 +5215,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5072,8 +5280,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5134,8 +5345,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5196,70 +5410,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>158500</v>
+      </c>
+      <c r="E89" s="3">
         <v>223600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>95000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>233500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>235000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>94200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>78300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>95100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>138000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>105400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>120900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>130300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>84100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>106200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>155000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>15400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>80300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5282,70 +5502,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-31400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-36100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-38200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-21700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-32200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5406,8 +5630,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5468,70 +5695,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-47400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-31400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-151800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-28800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-698700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-38400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-22700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-56100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-27700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-35600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5554,22 +5787,23 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-28200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-28400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-27000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-26900</v>
       </c>
       <c r="H96" s="3">
         <v>-26900</v>
@@ -5578,46 +5812,49 @@
         <v>-26900</v>
       </c>
       <c r="J96" s="3">
-        <v>-24100</v>
+        <v>-26900</v>
       </c>
       <c r="K96" s="3">
         <v>-24100</v>
       </c>
       <c r="L96" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="M96" s="3">
         <v>-24000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-23900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-21200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-21100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-21400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-18800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-19000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-18900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-19000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5678,8 +5915,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5740,8 +5980,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5802,190 +6045,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-97100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-111100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-143000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-116800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-24000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>150600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-40300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-113700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>491800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-38300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-23300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-51900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-88700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-88100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-82900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-32600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-33500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-96300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-64700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>7800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E102" s="3">
         <v>64200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-46500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>85800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>194100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>91100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-42900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-36800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-69900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-39200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>38300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>44800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-90500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-24800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>69800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>106300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-114700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>TTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,299 +665,325 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F7" s="2">
         <v>44407</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44225</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43952</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43679</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43588</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43497</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43315</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43224</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43133</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42951</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42860</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42769</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>932700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>960700</v>
+      </c>
+      <c r="F8" s="3">
         <v>976800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1149100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>873000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>841000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>841000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>929400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>767500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>734400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>838700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>962000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>603000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>539300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>655800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>875300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>548200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>488600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>627900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>872800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>515800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>468400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>632200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>671300</v>
+      </c>
+      <c r="F9" s="3">
         <v>645700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>746200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>558000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>540600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>546400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>622700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>479400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>489300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>572700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>640700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>387300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>360200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>422200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>551200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>344000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>304400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>401200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>556500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>322400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>289400</v>
+      </c>
+      <c r="F10" s="3">
         <v>331100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>402900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>315100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>300400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>294600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>306700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>288100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>245100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>266000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>321300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>215700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>179100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>233600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>324100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>204200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>184200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>226700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>316300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>193400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -981,8 +1007,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1074,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1111,8 +1145,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1123,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-17100</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1176,8 +1216,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1241,8 +1287,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1263,138 +1315,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>841000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>886500</v>
+      </c>
+      <c r="F17" s="3">
         <v>854900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>968400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>731500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>747500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>725000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>803600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>676400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>691100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>764800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>824300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>532900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>496300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>562900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>705000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>481300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>441200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>540200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>713500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>455300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>424800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>91700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>74200</v>
+      </c>
+      <c r="F18" s="3">
         <v>121900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>180700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>141500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>93500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>116000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>125800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>91100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>43300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>73900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>137700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>70100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>43000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>92900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>170300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>66900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>47400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>87700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>159300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>60500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1418,138 +1484,152 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="3">
         <v>2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>3300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>8800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>6300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>6200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>4700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>5500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>5100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>4300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>4300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>5400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>3700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>3900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>119100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>102800</v>
+      </c>
+      <c r="F21" s="3">
         <v>148100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>209500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>167400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>122400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>143600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>152800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>117100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>77400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>99200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>171700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>90300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>67800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>109700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>188800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>86400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>69000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>106300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>181000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>81000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1557,194 +1637,212 @@
         <v>7000</v>
       </c>
       <c r="E22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G22" s="3">
         <v>7100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>7500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>8000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>8300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>8700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>8200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>8400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>9000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>6700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>4700</v>
-      </c>
-      <c r="O22" s="3">
-        <v>4900</v>
       </c>
       <c r="P22" s="3">
         <v>4700</v>
       </c>
       <c r="Q22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="R22" s="3">
         <v>4700</v>
       </c>
-      <c r="R22" s="3">
-        <v>4800</v>
-      </c>
       <c r="S22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="T22" s="3">
         <v>4800</v>
       </c>
       <c r="U22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="V22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="W22" s="3">
         <v>4700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>4900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>87100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>69300</v>
+      </c>
+      <c r="F23" s="3">
         <v>117500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>177200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>135800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>88600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>111000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>121400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>86100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>43700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>71200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>137200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>70000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>43600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>93300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>169200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>66400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>46900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>88400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>158300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>59600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F24" s="3">
         <v>21100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>35100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>24500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>16400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>22000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>22900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>16000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>5500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>11600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>21600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>10500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>4400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>14800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>37900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>10700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>13100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>20000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>37800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>14600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1808,138 +1906,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>60100</v>
+      </c>
+      <c r="F26" s="3">
         <v>96300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>142200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>111300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>72200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>89000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>98400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>70100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>38200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>59700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>115600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>59500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>39100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>78500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>131300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>55700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>33800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>68400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>120500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>45000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>60100</v>
+      </c>
+      <c r="F27" s="3">
         <v>96300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>142200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>111300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>72200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>89000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>98400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>70100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>38200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>59700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>115600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>59500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>39100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>78500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>131300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>55700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>33800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>68400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>120500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>45000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2003,8 +2119,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2029,35 +2151,35 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>900</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>500</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-33100</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2068,8 +2190,14 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2133,8 +2261,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2198,138 +2332,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-3300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-8800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-6300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-6200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-4700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-5500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-4300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-4300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-5400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-3700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-3900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>60100</v>
+      </c>
+      <c r="F33" s="3">
         <v>96300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>142200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>111300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>72200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>89000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>98400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>70100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>38300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>60600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>115600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>59500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>39000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>79000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>131300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>22600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>33800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>68400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>120500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>45000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2393,143 +2545,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>60100</v>
+      </c>
+      <c r="F35" s="3">
         <v>96300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>142200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>111300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>72200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>89000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>98400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>70100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>38300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>60600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>115600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>59500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>39000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>79000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>131300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>22600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>33800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>68400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>120500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>45000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F38" s="2">
         <v>44407</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44225</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43952</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43679</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43588</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43497</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43315</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43224</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43133</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42951</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42860</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42769</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2553,8 +2723,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2578,73 +2750,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>405600</v>
+      </c>
+      <c r="F41" s="3">
         <v>535300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>497600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>433400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>479900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>394100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>200000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>108900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>151800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>143300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>180100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>250000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>289100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>250900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>206100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>219700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>310300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>335000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>265200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>158900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>273600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2708,297 +2888,327 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>366300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>310300</v>
+      </c>
+      <c r="F43" s="3">
         <v>301200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>391200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>306900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>261100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>294700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>400400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>321200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>268800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>312200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>428600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>225500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>193200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>219500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>329600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>198700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>183100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>221600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>328500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>183900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>326500</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>832100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>738200</v>
+      </c>
+      <c r="F44" s="3">
         <v>665600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>628800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>675300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>652400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>656200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>714200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>739000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>651700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>620600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>611300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>416700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>358300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>364500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>394800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>439300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>329000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>349000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>341600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>402100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>35100</v>
+      </c>
+      <c r="F45" s="3">
         <v>43600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>41800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>41200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>34200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>39200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>59900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>51400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>50600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>54200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>50300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>41800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>54100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>38200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>47800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>43000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>37600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>42600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>41300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>36500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1437300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1489200</v>
+      </c>
+      <c r="F46" s="3">
         <v>1545800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1559500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1456700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1427600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1384200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1374600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1220500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1122900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1130400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1270300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>933900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>894600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>873000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>978200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>900800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>859900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>948100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>976600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>781300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F47" s="3">
         <v>19300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>25300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>23000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>19700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>22600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>27800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>25300</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -3012,11 +3222,11 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3033,138 +3243,156 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>585900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>554700</v>
+      </c>
+      <c r="F48" s="3">
         <v>529200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>527300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>532600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>546700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>539500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>537900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>504400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>437300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>426400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>425400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>279300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>271500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>249500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>245300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>234400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>235200</v>
-      </c>
-      <c r="T48" s="3">
-        <v>226900</v>
-      </c>
-      <c r="U48" s="3">
-        <v>224300</v>
       </c>
       <c r="V48" s="3">
         <v>226900</v>
       </c>
       <c r="W48" s="3">
+        <v>224300</v>
+      </c>
+      <c r="X48" s="3">
+        <v>226900</v>
+      </c>
+      <c r="Y48" s="3">
         <v>1060100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1177700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>841700</v>
+      </c>
+      <c r="F49" s="3">
         <v>848500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>855200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>832800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>832400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>837500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>844100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>709800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>714600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>700400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>705500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>331100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>330900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>333100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>335400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>308300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>308800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>308900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>310200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>312000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>302900</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3228,8 +3456,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3293,73 +3527,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>29800</v>
+      </c>
+      <c r="F52" s="3">
         <v>25300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>28800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>30100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>26800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>30000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>27200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>31600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>55700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>52500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>64800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>78500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>73900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>79200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>76700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>73200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>89900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>85500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>87700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>82700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3423,73 +3669,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3253000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2936100</v>
+      </c>
+      <c r="F54" s="3">
         <v>2968000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2996100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2875100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2853200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2813900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2811500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2491600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2330500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2309700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2466000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1622800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1571000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1534800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1635700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1516800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1493800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1569500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1598800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1402900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1384600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3513,8 +3771,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3538,398 +3798,436 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>474500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>503100</v>
+      </c>
+      <c r="F57" s="3">
         <v>411400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>421700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>364400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>364000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>268700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>327400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>348000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>319200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>304700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>391700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>281500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>256600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>229000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>303900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>266600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>211800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>211500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>273600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>232400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>104200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>100000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>10000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>99900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>108900</v>
       </c>
       <c r="I58" s="3">
         <v>99900</v>
       </c>
       <c r="J58" s="3">
+        <v>108900</v>
+      </c>
+      <c r="K58" s="3">
+        <v>99900</v>
+      </c>
+      <c r="L58" s="3">
         <v>113900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>79900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>99900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>90000</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>13000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>13000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>26300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>23100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>23900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>23000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>411600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>433900</v>
+      </c>
+      <c r="F59" s="3">
         <v>442800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>467200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>445200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>392000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>419500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>428500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>362400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>357800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>351900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>360100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>283500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>276100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>282600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>335500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>292900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>283800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>309400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>324900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>263700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>479800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>986100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>937000</v>
+      </c>
+      <c r="F60" s="3">
         <v>958400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>988900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>819500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>855800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>797100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>855700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>824300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>757000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>756400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>841800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>565000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>532600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>511700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>652400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>572500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>521800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>543900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>622400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>519100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>463800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>991400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>691200</v>
+      </c>
+      <c r="F61" s="3">
         <v>587300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>591500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>691400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>691300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>782000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>790900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>601000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>620900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>620800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>721100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>312600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>312500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>312500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>299300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>302500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>305600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>308800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>312000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>315300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>328500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>156100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>156700</v>
+      </c>
+      <c r="F62" s="3">
         <v>185100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>186300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>184500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>191400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>180700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>179900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>154200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>93100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>88700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>97900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>50900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>56900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>60400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>60700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>61100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>49300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>56900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>56600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>55400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3993,8 +4291,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4058,8 +4362,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4123,73 +4433,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2133500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1785000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1730900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1766700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1695400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1738400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1759800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1826500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1579600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1471000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1465900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1660700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>928400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>902100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>884500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1012400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>936000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>876700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>909600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>991000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>889900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>834500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4213,8 +4535,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4278,8 +4602,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4343,8 +4673,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4408,8 +4744,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4473,73 +4815,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1040600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1071900</v>
+      </c>
+      <c r="F72" s="3">
         <v>1157400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1151800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1104300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1041500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>981300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>911500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>837200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>784900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>763900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>724000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>613200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>587300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>568400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>538500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>490400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>534300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>578600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>535600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>443600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>480000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4603,8 +4957,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4668,8 +5028,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4733,73 +5099,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1119500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1151100</v>
+      </c>
+      <c r="F76" s="3">
         <v>1237200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1229400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1179700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1114800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1054000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>985000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>912100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>859600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>843800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>805300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>694400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>668900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>650200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>623300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>580800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>617100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>659900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>607800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>513000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4863,143 +5241,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F80" s="2">
         <v>44407</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44225</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43952</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43679</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43588</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43497</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43315</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43224</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43133</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42951</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42860</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42769</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>60100</v>
+      </c>
+      <c r="F81" s="3">
         <v>96300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>142200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>111300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>72200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>89000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>98400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>70100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>38300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>60600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>115600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>59500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>39000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>79000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>131300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>22600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>33800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>68400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>120500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>45000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5023,73 +5419,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>26500</v>
+      </c>
+      <c r="F83" s="3">
         <v>23600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>25100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>24100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>25800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>24300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>22800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>22800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>25300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>19000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>27900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>15600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>19400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>11800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>14900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>15200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>17300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>13200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>18000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>16500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5153,8 +5557,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5218,8 +5628,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5283,8 +5699,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5348,8 +5770,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5413,73 +5841,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>78300</v>
+      </c>
+      <c r="F89" s="3">
         <v>158500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>223600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>95000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>233500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>235000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>94200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-23300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>78300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>95100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>138000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>26000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>105400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>120900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>130300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>8100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>84100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>106200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>155000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>15400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>80300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5503,73 +5943,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-15700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-10500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-31400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-19500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-15300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-11800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-36100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-23400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-19200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-14200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-38200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-24600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-10800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-21700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-14300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-32900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-11600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-32200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5633,8 +6081,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5698,73 +6152,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-413400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-57800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-21200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-47400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-31400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-21100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-151800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-11800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-28800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-18600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-698700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-26800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-38400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-22700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-56100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-10800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-27700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-9600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-10900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-35600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5788,73 +6254,81 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-28100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-28200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-28400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-27000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-26900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-26900</v>
       </c>
       <c r="J96" s="3">
         <v>-26900</v>
       </c>
       <c r="K96" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="M96" s="3">
         <v>-24100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-24100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-24000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-23900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-21200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-21300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-21400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-18800</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-18900</v>
       </c>
       <c r="V96" s="3">
         <v>-19000</v>
       </c>
       <c r="W96" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="X96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5918,8 +6392,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5983,8 +6463,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6048,73 +6534,85 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>293300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-152500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-97100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-111100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-143000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-116800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-24000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>150600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-7500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-40300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-113700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>491800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-38300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-23300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-51900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-88700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-88100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-82900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-32600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-33500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-96300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-64700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6122,125 +6620,137 @@
         <v>-2500</v>
       </c>
       <c r="E101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>3600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>4200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-5500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-2900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>7800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-1700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>1800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-212700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-129700</v>
+      </c>
+      <c r="F102" s="3">
         <v>37700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>64200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-46500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>85800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>194100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>91100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-42900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>8500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-36800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-69900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-39200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>38300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>44800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-13600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-90500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-24800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>69800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>106300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-114700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>TTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,325 +665,337 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44680</v>
+      </c>
+      <c r="E7" s="2">
         <v>44589</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44407</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44225</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43952</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43679</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43588</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43497</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43315</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43224</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43133</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42951</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42860</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42769</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1249500</v>
+      </c>
+      <c r="E8" s="3">
         <v>932700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>960700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>976800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1149100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>873000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>841000</v>
       </c>
       <c r="J8" s="3">
         <v>841000</v>
       </c>
       <c r="K8" s="3">
+        <v>841000</v>
+      </c>
+      <c r="L8" s="3">
         <v>929400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>767500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>734400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>838700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>962000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>603000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>539300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>655800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>875300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>548200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>488600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>627900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>872800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>515800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>468400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>844100</v>
+      </c>
+      <c r="E9" s="3">
         <v>632200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>671300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>645700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>746200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>558000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>540600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>546400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>622700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>479400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>489300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>572700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>640700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>387300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>360200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>422200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>551200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>344000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>304400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>401200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>556500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>322400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>405400</v>
+      </c>
+      <c r="E10" s="3">
         <v>300500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>289400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>331100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>402900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>315100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>294600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>306700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>288100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>245100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>266000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>321300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>215700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>179100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>233600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>324100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>204200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>184200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>226700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>316300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>193400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1009,8 +1021,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1080,8 +1093,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1151,34 +1167,37 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>5800</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-17100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1222,8 +1241,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1293,8 +1315,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1317,150 +1342,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1078900</v>
+      </c>
+      <c r="E17" s="3">
         <v>841000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>886500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>854900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>968400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>731500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>747500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>725000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>803600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>676400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>691100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>764800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>824300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>532900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>496300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>562900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>705000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>481300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>441200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>540200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>713500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>455300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>424800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>170600</v>
+      </c>
+      <c r="E18" s="3">
         <v>91700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>74200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>121900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>180700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>141500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>93500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>116000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>125800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>91100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>43300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>73900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>137700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>70100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>43000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>92900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>170300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>66900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>47400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>87700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>159300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>60500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1486,8 +1518,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1495,146 +1528,152 @@
         <v>2500</v>
       </c>
       <c r="E20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3600</v>
-      </c>
-      <c r="T20" s="3">
-        <v>4300</v>
       </c>
       <c r="U20" s="3">
         <v>4300</v>
       </c>
       <c r="V20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="W20" s="3">
         <v>5400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>201100</v>
+      </c>
+      <c r="E21" s="3">
         <v>119100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>102800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>148100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>209500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>167400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>122400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>143600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>152800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>117100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>77400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>99200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>171700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>90300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>67800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>109700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>188800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>86400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>69000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>106300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>181000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>81000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="E22" s="3">
         <v>7000</v>
@@ -1643,46 +1682,46 @@
         <v>7000</v>
       </c>
       <c r="G22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H22" s="3">
         <v>7100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4900</v>
-      </c>
-      <c r="R22" s="3">
-        <v>4700</v>
       </c>
       <c r="S22" s="3">
         <v>4700</v>
       </c>
       <c r="T22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="U22" s="3">
         <v>4800</v>
@@ -1691,158 +1730,167 @@
         <v>4800</v>
       </c>
       <c r="W22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="X22" s="3">
         <v>4700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>165100</v>
+      </c>
+      <c r="E23" s="3">
         <v>87100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>69300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>117500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>177200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>135800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>88600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>111000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>121400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>86100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>43700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>71200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>137200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>70000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>43600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>93300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>169200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>66400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>46900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>88400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>158300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>59600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E24" s="3">
         <v>17600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>21100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>35100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>24500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>22000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>37900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>20000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>37800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>14600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1912,150 +1960,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>131100</v>
+      </c>
+      <c r="E26" s="3">
         <v>69500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>60100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>96300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>142200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>111300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>72200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>89000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>98400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>70100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>38200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>59700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>115600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>59500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>39100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>78500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>131300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>55700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>33800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>68400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>120500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>45000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>131100</v>
+      </c>
+      <c r="E27" s="3">
         <v>69500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>60100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>96300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>142200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>111300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>72200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>89000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>98400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>70100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>59700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>115600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>59500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>39100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>78500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>131300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>55700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>33800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>68400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>120500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>45000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2125,8 +2182,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2157,32 +2217,32 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>900</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>500</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-33100</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2196,8 +2256,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2267,8 +2330,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2338,8 +2404,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2347,141 +2416,147 @@
         <v>-2500</v>
       </c>
       <c r="E32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3600</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-4300</v>
       </c>
       <c r="U32" s="3">
         <v>-4300</v>
       </c>
       <c r="V32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="W32" s="3">
         <v>-5400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>131100</v>
+      </c>
+      <c r="E33" s="3">
         <v>69500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>60100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>96300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>142200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>111300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>72200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>89000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>98400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>70100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>60600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>115600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>59500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>39000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>79000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>131300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>22600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>33800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>68400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>120500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>45000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2551,155 +2626,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>131100</v>
+      </c>
+      <c r="E35" s="3">
         <v>69500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>60100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>96300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>142200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>111300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>72200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>89000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>98400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>70100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>60600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>115600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>59500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>39000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>79000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>131300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>22600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>33800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>68400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>120500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>45000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44680</v>
+      </c>
+      <c r="E38" s="2">
         <v>44589</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44407</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44225</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43952</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43679</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43588</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43497</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43315</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43224</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43133</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42951</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42860</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42769</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2725,8 +2809,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2752,79 +2837,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>263200</v>
+      </c>
+      <c r="E41" s="3">
         <v>193000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>405600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>535300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>497600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>433400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>479900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>394100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>108900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>151800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>143300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>180100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>250000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>289100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>250900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>206100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>219700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>310300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>335000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>265200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>158900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>273600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2894,324 +2983,339 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>439300</v>
+      </c>
+      <c r="E43" s="3">
         <v>366300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>310300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>301200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>391200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>306900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>261100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>294700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>321200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>268800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>312200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>428600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>225500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>193200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>219500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>329600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>198700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>183100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>221600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>328500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>183900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>326500</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>891700</v>
+      </c>
+      <c r="E44" s="3">
         <v>832100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>738200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>665600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>628800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>675300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>652400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>656200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>714200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>739000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>651700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>620600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>611300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>416700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>358300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>364500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>394800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>439300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>329000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>349000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>341600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>402100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E45" s="3">
         <v>46000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>35100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>43600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>41800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>41200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>34200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>39200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>59900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>51400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>50600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>54200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>50300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>41800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>54100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>38200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>47800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>43000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>37600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>42600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>41300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>36500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1663700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1437300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1489200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1545800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1559500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1456700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1427600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1384200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1374600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1220500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1122900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1130400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1270300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>933900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>894600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>873000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>978200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>900800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>859900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>948100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>976600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>781300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E47" s="3">
         <v>24100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>20700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>19300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>25300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>23000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>19700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>22600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>27800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25300</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -3228,8 +3332,8 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3249,150 +3353,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>588000</v>
+      </c>
+      <c r="E48" s="3">
         <v>585900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>554700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>529200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>527300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>532600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>546700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>539500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>537900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>504400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>437300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>426400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>425400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>279300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>271500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>249500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>245300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>234400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>235200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>226900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>224300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>226900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1060100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1170900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1177700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>841700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>848500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>855200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>832800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>832400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>837500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>844100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>709800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>714600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>700400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>705500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>331100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>330900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>333100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>335400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>308300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>308800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>308900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>310200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>312000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>302900</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3462,8 +3575,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3533,79 +3649,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E52" s="3">
         <v>28100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>29800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>28800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>30100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>26800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>30000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>27200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>31600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>55700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>52500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>64800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>78500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>73900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>79200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>76700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>73200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>89900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>85500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>87700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>82700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3675,79 +3797,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3479300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3253000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2936100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2968000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2996100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2875100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2853200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2813900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2811500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2491600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2330500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2309700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2466000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1622800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1571000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1534800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1635700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1516800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1493800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1569500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1598800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1402900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1384600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3773,8 +3901,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3800,79 +3929,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>566800</v>
+      </c>
+      <c r="E57" s="3">
         <v>474500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>503100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>411400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>421700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>364400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>364000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>268700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>327400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>348000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>319200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>304700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>391700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>281500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>256600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>229000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>303900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>266600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>211800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>211500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>273600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>232400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3880,41 +4013,41 @@
         <v>100000</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>104200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>99900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>108900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>99900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>113900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>79900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>99900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>90000</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
@@ -3922,312 +4055,327 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>13000</v>
       </c>
       <c r="U58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="V58" s="3">
         <v>26300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>23100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>23900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>23000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>444000</v>
+      </c>
+      <c r="E59" s="3">
         <v>411600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>433900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>442800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>467200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>445200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>392000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>419500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>428500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>362400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>357800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>351900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>360100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>283500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>276100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>282600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>335500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>292900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>283800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>309400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>324900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>263700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>479800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1110700</v>
+      </c>
+      <c r="E60" s="3">
         <v>986100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>937000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>958400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>988900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>819500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>855800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>797100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>855700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>824300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>757000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>756400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>841800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>565000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>532600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>511700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>652400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>572500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>521800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>543900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>622400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>519100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>463800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>991000</v>
+      </c>
+      <c r="E61" s="3">
         <v>991400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>691200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>587300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>591500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>691400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>691300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>782000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>790900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>601000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>620900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>620800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>721100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>312600</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>312500</v>
       </c>
       <c r="R61" s="3">
         <v>312500</v>
       </c>
       <c r="S61" s="3">
+        <v>312500</v>
+      </c>
+      <c r="T61" s="3">
         <v>299300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>302500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>305600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>308800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>312000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>315300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>328500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>154100</v>
+      </c>
+      <c r="E62" s="3">
         <v>156100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>156700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>185100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>186300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>184500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>191400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>180700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>179900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>154200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>93100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>88700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>97900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>50900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>56900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>60400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>60700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>61100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>49300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>56900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>56600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>55400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4297,8 +4445,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4368,8 +4519,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4439,79 +4593,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2255800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2133500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1785000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1730900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1766700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1695400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1738400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1759800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1826500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1579600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1471000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1465900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1660700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>928400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>902100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>884500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1012400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>936000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>876700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>909600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>991000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>889900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>834500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4537,8 +4697,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4608,8 +4769,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4679,8 +4843,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4750,8 +4917,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4821,79 +4991,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1146800</v>
+      </c>
+      <c r="E72" s="3">
         <v>1040600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1071900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1157400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1151800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1104300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1041500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>981300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>911500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>837200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>784900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>763900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>724000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>613200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>587300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>568400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>538500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>490400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>534300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>578600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>535600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>443600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>480000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4963,8 +5139,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5034,8 +5213,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5105,79 +5287,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1223500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1119500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1151100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1237200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1229400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1179700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1114800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1054000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>985000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>912100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>859600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>843800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>805300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>694400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>668900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>650200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>623300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>580800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>617100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>659900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>607800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>513000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5247,155 +5435,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44680</v>
+      </c>
+      <c r="E80" s="2">
         <v>44589</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44407</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44225</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43952</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43679</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43588</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43497</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43315</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43224</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43133</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42951</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42860</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42769</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>131100</v>
+      </c>
+      <c r="E81" s="3">
         <v>69500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>60100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>96300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>142200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>111300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>72200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>89000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>98400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>70100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>60600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>115600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>59500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>39000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>79000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>131300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>22600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>33800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>68400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>120500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>45000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5421,79 +5618,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E83" s="3">
         <v>24900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>26500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>25100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>24100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>25800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>24300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>22800</v>
       </c>
       <c r="L83" s="3">
         <v>22800</v>
       </c>
       <c r="M83" s="3">
+        <v>22800</v>
+      </c>
+      <c r="N83" s="3">
         <v>25300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>17300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>18000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>16500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5563,8 +5764,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5634,8 +5838,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5705,8 +5912,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5776,8 +5986,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5847,79 +6060,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>132900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-90000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>78300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>158500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>223600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>95000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>233500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>235000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>94200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-23300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>78300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>95100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>138000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>26000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>105400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>120900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>130300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>84100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>106200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>155000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>15400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>80300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5945,79 +6164,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11900</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-31400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-36100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-38200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-21700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-14300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-32900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-11600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-32200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6087,8 +6310,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6158,79 +6384,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-413400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-57800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-47400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-31400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-151800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-698700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-38400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-22700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-56100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-27700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-10900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-35600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6256,8 +6488,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6265,22 +6498,22 @@
         <v>-31500</v>
       </c>
       <c r="E96" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="F96" s="3">
         <v>-27800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-28100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-28200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-28400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-27000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-26900</v>
       </c>
       <c r="K96" s="3">
         <v>-26900</v>
@@ -6289,46 +6522,49 @@
         <v>-26900</v>
       </c>
       <c r="M96" s="3">
-        <v>-24100</v>
+        <v>-26900</v>
       </c>
       <c r="N96" s="3">
         <v>-24100</v>
       </c>
       <c r="O96" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="P96" s="3">
         <v>-24000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-21200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-21100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-21300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-21400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-18800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-19000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-18900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-19000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6398,8 +6634,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6469,8 +6708,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6540,217 +6782,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E100" s="3">
         <v>293300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-152500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-97100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-111100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-143000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-116800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-24000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>150600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-40300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-113700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>491800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-38300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-23300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-51900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-88700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-88100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-82900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-32600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-33500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-96300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-64700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>7800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-212700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-129700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>37700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>64200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-46500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>85800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>194100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>91100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-42900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-36800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-69900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-39200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>38300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>44800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-90500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-24800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>69800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>106300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-114700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>TTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,337 +665,350 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E7" s="2">
         <v>44680</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44589</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44407</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44225</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43952</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43679</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43588</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43497</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43315</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43224</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43133</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42951</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42860</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42769</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1160600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1249500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>932700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>960700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>976800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1149100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>873000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>841000</v>
       </c>
       <c r="K8" s="3">
         <v>841000</v>
       </c>
       <c r="L8" s="3">
+        <v>841000</v>
+      </c>
+      <c r="M8" s="3">
         <v>929400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>767500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>734400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>838700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>962000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>603000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>539300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>655800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>875300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>548200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>488600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>627900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>872800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>515800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>468400</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>760600</v>
+      </c>
+      <c r="E9" s="3">
         <v>844100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>632200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>671300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>645700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>746200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>558000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>540600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>546400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>622700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>479400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>489300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>572700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>640700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>387300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>360200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>422200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>551200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>344000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>304400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>401200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>556500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>322400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E10" s="3">
         <v>405400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>289400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>331100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>402900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>315100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>294600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>306700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>288100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>245100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>266000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>321300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>215700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>179100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>233600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>324100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>204200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>184200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>226700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>316300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>193400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1022,8 +1035,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1096,8 +1110,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1170,37 +1187,40 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>5800</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-17100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1244,8 +1264,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1318,8 +1341,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1343,156 +1369,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>997500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1078900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>841000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>886500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>854900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>968400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>731500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>747500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>725000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>803600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>676400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>691100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>764800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>824300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>532900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>496300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>562900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>705000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>481300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>441200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>540200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>713500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>455300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>424800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>163100</v>
+      </c>
+      <c r="E18" s="3">
         <v>170600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>91700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>74200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>121900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>180700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>141500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>93500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>116000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>125800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>91100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>43300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>73900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>137700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>70100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>43000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>92900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>170300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>66900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>47400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>87700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>159300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>60500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1519,164 +1552,171 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="E20" s="3">
         <v>2500</v>
       </c>
       <c r="F20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3600</v>
-      </c>
-      <c r="U20" s="3">
-        <v>4300</v>
       </c>
       <c r="V20" s="3">
         <v>4300</v>
       </c>
       <c r="W20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="X20" s="3">
         <v>5400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>192400</v>
+      </c>
+      <c r="E21" s="3">
         <v>201100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>119100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>102800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>148100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>209500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>167400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>122400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>143600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>152800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>117100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>77400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>99200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>171700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>90300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>67800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>109700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>188800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>86400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>69000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>106300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>181000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>81000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E22" s="3">
         <v>8000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>7000</v>
       </c>
       <c r="F22" s="3">
         <v>7000</v>
@@ -1685,46 +1725,46 @@
         <v>7000</v>
       </c>
       <c r="H22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I22" s="3">
         <v>7100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4900</v>
-      </c>
-      <c r="S22" s="3">
-        <v>4700</v>
       </c>
       <c r="T22" s="3">
         <v>4700</v>
       </c>
       <c r="U22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="V22" s="3">
         <v>4800</v>
@@ -1733,164 +1773,173 @@
         <v>4800</v>
       </c>
       <c r="X22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Y22" s="3">
         <v>4700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>157100</v>
+      </c>
+      <c r="E23" s="3">
         <v>165100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>87100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>69300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>117500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>177200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>135800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>88600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>111000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>121400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>86100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>43700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>71200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>137200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>70000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>43600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>93300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>169200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>66400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>46900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>88400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>158300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>59600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E24" s="3">
         <v>33900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>17600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>21100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>35100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>24500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>37900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>20000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>37800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>14600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1963,156 +2012,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>125200</v>
+      </c>
+      <c r="E26" s="3">
         <v>131100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>69500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>60100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>96300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>142200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>111300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>72200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>89000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>98400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>70100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>38200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>59700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>115600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>59500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>39100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>78500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>131300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>55700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>33800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>68400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>120500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>45000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>125200</v>
+      </c>
+      <c r="E27" s="3">
         <v>131100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>69500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>60100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>96300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>142200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>111300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>72200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>89000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>98400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>70100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>59700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>115600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>59500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>39100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>78500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>131300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>55700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>33800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>68400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>120500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>45000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2185,8 +2243,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2220,32 +2281,32 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>900</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>500</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-33100</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2259,8 +2320,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2333,8 +2397,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2407,156 +2474,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2500</v>
+        <v>-3200</v>
       </c>
       <c r="E32" s="3">
         <v>-2500</v>
       </c>
       <c r="F32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3600</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-4300</v>
       </c>
       <c r="V32" s="3">
         <v>-4300</v>
       </c>
       <c r="W32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="X32" s="3">
         <v>-5400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>125200</v>
+      </c>
+      <c r="E33" s="3">
         <v>131100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>69500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>60100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>96300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>142200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>111300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>72200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>89000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>98400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>70100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>38300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>60600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>115600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>59500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>39000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>79000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>131300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>22600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>33800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>68400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>120500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>45000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2629,161 +2705,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>125200</v>
+      </c>
+      <c r="E35" s="3">
         <v>131100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>69500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>60100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>96300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>142200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>111300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>72200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>89000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>98400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>70100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>38300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>60600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>115600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>59500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>39000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>79000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>131300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>22600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>33800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>68400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>120500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>45000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E38" s="2">
         <v>44680</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44589</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44407</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44225</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43952</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43679</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43588</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43497</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43315</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43224</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43133</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42951</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42860</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42769</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2810,8 +2895,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2838,82 +2924,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>231600</v>
+      </c>
+      <c r="E41" s="3">
         <v>263200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>193000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>405600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>535300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>497600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>433400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>479900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>394100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>108900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>151800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>143300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>180100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>250000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>289100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>250900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>206100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>219700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>310300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>335000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>265200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>158900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>273600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2986,339 +3076,354 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>350700</v>
+      </c>
+      <c r="E43" s="3">
         <v>439300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>366300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>310300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>301200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>391200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>306900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>261100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>294700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>321200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>268800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>312200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>428600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>225500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>193200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>219500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>329600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>198700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>183100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>221600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>328500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>183900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>326500</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>939300</v>
+      </c>
+      <c r="E44" s="3">
         <v>891700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>832100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>738200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>665600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>628800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>675300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>652400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>656200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>714200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>739000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>651700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>620600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>611300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>416700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>358300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>364500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>394800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>439300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>329000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>349000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>341600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>402100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E45" s="3">
         <v>69400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>46000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>35100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>43600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>41800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>41200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>34200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>59900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>51400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>50600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>54200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>50300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>41800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>54100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>38200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>47800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>43000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>37600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>42600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>41300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>36500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1604400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1663700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1437300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1489200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1545800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1559500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1456700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1427600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1384200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1374600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1220500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1122900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1130400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1270300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>933900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>894600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>873000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>978200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>900800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>859900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>948100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>976600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>781300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E47" s="3">
         <v>30900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>24100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>20700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>19300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>25300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>23000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>19700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>22600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>27800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>25300</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -3335,8 +3440,8 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3356,156 +3461,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>605200</v>
+      </c>
+      <c r="E48" s="3">
         <v>588000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>585900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>554700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>529200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>527300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>532600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>546700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>539500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>537900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>504400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>437300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>426400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>425400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>279300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>271500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>249500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>245300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>234400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>235200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>226900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>224300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>226900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1060100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1178900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1170900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1177700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>841700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>848500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>855200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>832800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>832400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>837500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>844100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>709800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>714600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>700400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>705500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>331100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>330900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>333100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>335400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>308300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>308800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>308900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>310200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>312000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>302900</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3578,8 +3692,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3652,82 +3769,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E52" s="3">
         <v>25900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>28100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>29800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>28800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>30100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>26800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>30000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>27200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>31600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>55700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>52500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>64800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>78500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>73900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>79200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>76700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>73200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>89900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>85500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>87700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>82700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3800,82 +3923,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3439900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3479300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3253000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2936100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2968000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2996100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2875100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2853200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2813900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2811500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2491600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2330500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2309700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2466000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1622800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1571000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1534800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1635700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1516800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1493800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1569500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1598800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1402900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1384600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3902,8 +4031,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3930,127 +4060,131 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>487000</v>
+      </c>
+      <c r="E57" s="3">
         <v>566800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>474500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>503100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>411400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>421700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>364400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>364000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>268700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>327400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>348000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>319200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>304700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>391700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>281500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>256600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>229000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>303900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>266600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>211800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>211500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>273600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>232400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100000</v>
+        <v>65000</v>
       </c>
       <c r="E58" s="3">
         <v>100000</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>104200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>100000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>99900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>108900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>99900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>113900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>79900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>99900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>90000</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
@@ -4058,324 +4192,339 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>13000</v>
       </c>
       <c r="V58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="W58" s="3">
         <v>26300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>23100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>23900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>23000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>459200</v>
+      </c>
+      <c r="E59" s="3">
         <v>444000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>411600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>433900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>442800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>467200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>445200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>392000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>419500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>428500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>362400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>357800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>351900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>360100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>283500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>276100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>282600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>335500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>292900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>283800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>309400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>324900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>263700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>479800</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1011300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1110700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>986100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>937000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>958400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>988900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>819500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>855800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>797100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>855700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>824300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>757000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>756400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>841800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>565000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>532600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>511700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>652400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>572500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>521800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>543900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>622400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>519100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>463800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>990600</v>
+      </c>
+      <c r="E61" s="3">
         <v>991000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>991400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>691200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>587300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>591500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>691400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>691300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>782000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>790900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>601000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>620900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>620800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>721100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>312600</v>
-      </c>
-      <c r="R61" s="3">
-        <v>312500</v>
       </c>
       <c r="S61" s="3">
         <v>312500</v>
       </c>
       <c r="T61" s="3">
+        <v>312500</v>
+      </c>
+      <c r="U61" s="3">
         <v>299300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>302500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>305600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>308800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>312000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>315300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>328500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>151500</v>
+      </c>
+      <c r="E62" s="3">
         <v>154100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>156100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>156700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>185100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>186300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>184500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>191400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>180700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>179900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>154200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>93100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>88700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>97900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>50900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>56900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>60400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>60700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>61100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>49300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>56900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>56600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>55400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4448,8 +4597,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4522,8 +4674,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4596,82 +4751,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2153300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2255800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2133500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1785000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1730900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1766700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1695400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1738400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1759800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1826500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1579600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1471000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1465900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1660700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>928400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>902100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>884500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1012400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>936000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>876700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>909600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>991000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>889900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>834500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4698,8 +4859,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4772,8 +4934,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4846,8 +5011,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4920,8 +5088,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4994,82 +5165,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1213600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1146800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1040600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1071900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1157400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1151800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1104300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1041500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>981300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>911500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>837200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>784900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>763900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>724000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>613200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>587300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>568400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>538500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>490400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>534300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>578600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>535600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>443600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>480000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5142,8 +5319,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5216,8 +5396,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5290,82 +5473,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1286600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1223500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1119500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1151100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1237200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1229400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1179700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1114800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1054000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>985000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>912100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>859600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>843800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>805300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>694400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>668900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>650200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>623300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>580800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>617100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>659900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>607800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>513000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5438,161 +5627,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E80" s="2">
         <v>44680</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44589</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44407</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44225</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43952</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43679</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43588</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43497</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43315</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43224</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43133</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42951</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42860</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42769</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>125200</v>
+      </c>
+      <c r="E81" s="3">
         <v>131100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>69500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>60100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>96300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>142200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>111300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>72200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>89000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>98400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>70100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>38300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>60600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>115600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>59500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>39000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>79000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>131300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>22600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>33800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>68400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>120500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>45000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5619,82 +5817,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E83" s="3">
         <v>28000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>26500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>23600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>25100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>24100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>25800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>24300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>22800</v>
       </c>
       <c r="M83" s="3">
         <v>22800</v>
       </c>
       <c r="N83" s="3">
+        <v>22800</v>
+      </c>
+      <c r="O83" s="3">
         <v>25300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>14900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>17300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>18000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>16500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5767,8 +5969,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5841,8 +6046,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5915,8 +6123,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5989,8 +6200,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6063,82 +6277,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>111700</v>
+      </c>
+      <c r="E89" s="3">
         <v>132900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-90000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>78300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>158500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>223600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>95000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>233500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>235000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>94200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-23300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>78300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>95100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>138000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>26000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>105400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>120900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>130300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>84100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>106200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>155000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>15400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>80300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6165,82 +6385,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-24100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11900</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-31400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-36100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-38200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-24600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-21700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-14300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-32900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-32200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6313,8 +6537,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6387,82 +6614,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-413400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-57800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-47400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-31400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-151800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-28800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-18600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-698700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-26800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-38400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-22700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-56100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-10800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-27700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-10900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-35600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6489,34 +6722,35 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-31500</v>
+        <v>-31400</v>
       </c>
       <c r="E96" s="3">
         <v>-31500</v>
       </c>
       <c r="F96" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="G96" s="3">
         <v>-27800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-28100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-28200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-28400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-27000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-26900</v>
       </c>
       <c r="L96" s="3">
         <v>-26900</v>
@@ -6525,46 +6759,49 @@
         <v>-26900</v>
       </c>
       <c r="N96" s="3">
-        <v>-24100</v>
+        <v>-26900</v>
       </c>
       <c r="O96" s="3">
         <v>-24100</v>
       </c>
       <c r="P96" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-23900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-21200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-21100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-21300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-21400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-18800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-19000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-18900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-19000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6637,8 +6874,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6711,8 +6951,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6785,226 +7028,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-99700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-30900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>293300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-152500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-97100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-111100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-143000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-116800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-24000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>150600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-40300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-113700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>491800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-38300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-23300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-51900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-88700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-88100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-82900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-32600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-33500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-96300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-64700</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>7800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E102" s="3">
         <v>70300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-212700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-129700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>37700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>64200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-46500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>85800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>194100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>91100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-42900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-36800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-69900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-39200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>38300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>44800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-90500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-24800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>69800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>106300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-114700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,350 +665,376 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44960</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F7" s="2">
         <v>44771</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44680</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44589</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44407</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44225</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43952</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43679</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43588</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43497</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43315</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43224</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43133</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42951</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42860</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42769</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1148800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1172000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1160600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1249500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>932700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>960700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>976800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1149100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>873000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>841000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>841000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>929400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>767500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>734400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>838700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>962000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>603000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>539300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>655800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>875300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>548200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>488600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>627900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>872800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>515800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>468400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>752900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>773100</v>
+      </c>
+      <c r="F9" s="3">
         <v>760600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>844100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>632200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>671300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>645700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>746200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>558000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>540600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>546400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>622700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>479400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>489300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>572700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>640700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>387300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>360200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>422200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>551200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>344000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>304400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>401200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>556500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>322400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>395900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>398900</v>
+      </c>
+      <c r="F10" s="3">
         <v>400000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>405400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>300500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>289400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>331100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>402900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>315100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>300400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>294600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>306700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>288100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>245100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>266000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>321300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>215700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>179100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>233600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>324100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>204200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>184200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>226700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>316300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>193400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1036,8 +1062,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1113,8 +1141,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1190,8 +1224,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1201,33 +1241,33 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>5800</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-17100</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1267,8 +1307,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1344,8 +1390,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1370,162 +1422,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1012400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1021600</v>
+      </c>
+      <c r="F17" s="3">
         <v>997500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1078900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>841000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>886500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>854900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>968400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>731500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>747500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>725000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>803600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>676400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>691100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>764800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>824300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>532900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>496300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>562900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>705000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>481300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>441200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>540200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>713500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>455300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>424800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>136400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>150400</v>
+      </c>
+      <c r="F18" s="3">
         <v>163100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>170600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>91700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>74200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>121900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>180700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>141500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>93500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>116000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>125800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>91100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>43300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>73900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>137700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>70100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>43000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>92900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>170300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>66900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>47400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>87700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>159300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>60500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1553,393 +1619,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F20" s="3">
         <v>3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>3700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>4200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>3100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>8800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>6300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>6200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>4700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>5500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>5100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>3600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>4300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>4300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>5400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>3700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>3900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>173700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>184600</v>
+      </c>
+      <c r="F21" s="3">
         <v>192400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>201100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>119100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>102800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>148100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>209500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>167400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>122400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>143600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>152800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>117100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>77400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>99200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>171700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>90300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>67800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>109700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>188800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>86400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>69000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>106300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>181000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>81000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F22" s="3">
         <v>9200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>8000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>7000</v>
       </c>
       <c r="H22" s="3">
         <v>7000</v>
       </c>
       <c r="I22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K22" s="3">
         <v>7100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>7500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>8000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>8300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>8700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>8200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>8400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>9000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>6700</v>
-      </c>
-      <c r="R22" s="3">
-        <v>4700</v>
-      </c>
-      <c r="S22" s="3">
-        <v>4900</v>
       </c>
       <c r="T22" s="3">
         <v>4700</v>
       </c>
       <c r="U22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="V22" s="3">
         <v>4700</v>
       </c>
-      <c r="V22" s="3">
-        <v>4800</v>
-      </c>
       <c r="W22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="X22" s="3">
         <v>4800</v>
       </c>
       <c r="Y22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="AA22" s="3">
         <v>4700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>4900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>131300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>143300</v>
+      </c>
+      <c r="F23" s="3">
         <v>157100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>165100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>87100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>69300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>117500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>177200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>135800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>88600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>111000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>121400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>86100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>43700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>71200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>137200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>70000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>43600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>93300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>169200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>66400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>46900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>88400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>158300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>59600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>25700</v>
+      </c>
+      <c r="F24" s="3">
         <v>31900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>33900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>17600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>9200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>21100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>35100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>24500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>16400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>22000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>22900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>16000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>5500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>11600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>21600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>10500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>4400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>14800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>37900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>10700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>13100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>20000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>37800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>14600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2015,162 +2113,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>117600</v>
+      </c>
+      <c r="F26" s="3">
         <v>125200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>131100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>69500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>60100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>96300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>142200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>111300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>72200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>89000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>98400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>70100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>38200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>59700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>115600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>59500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>39100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>78500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>131300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>55700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>33800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>68400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>120500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>45000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>117600</v>
+      </c>
+      <c r="F27" s="3">
         <v>125200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>131100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>69500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>60100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>96300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>142200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>111300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>72200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>89000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>98400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>70100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>38200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>59700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>115600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>59500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>39100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>78500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>131300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>55700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>33800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>68400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>120500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>45000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2246,31 +2362,37 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2284,35 +2406,35 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>900</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>500</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-33100</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2323,8 +2445,14 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2400,8 +2528,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2477,162 +2611,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-3700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-4200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-3100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-8800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-6200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-4700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-5500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-5100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-3600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-4300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-4300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>117600</v>
+      </c>
+      <c r="F33" s="3">
         <v>125200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>131100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>69500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>60100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>96300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>142200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>111300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>72200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>89000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>98400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>70100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>38300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>60600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>115600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>59500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>39000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>79000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>131300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>22600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>33800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>68400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>120500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>45000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2708,167 +2860,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>117600</v>
+      </c>
+      <c r="F35" s="3">
         <v>125200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>131100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>69500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>60100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>96300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>142200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>111300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>72200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>89000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>98400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>70100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>38300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>60600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>115600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>59500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>39000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>79000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>131300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>22600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>33800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>68400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>120500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>45000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44960</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F38" s="2">
         <v>44771</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44680</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44589</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44407</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44225</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43952</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43679</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43588</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43497</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43315</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43224</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43133</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42951</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42860</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42769</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2896,8 +3066,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2925,85 +3097,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>188300</v>
+      </c>
+      <c r="F41" s="3">
         <v>231600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>263200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>193000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>405600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>535300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>497600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>433400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>479900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>394100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>200000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>108900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>151800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>143300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>180100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>250000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>289100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>250900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>206100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>219700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>310300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>335000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>265200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>158900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>273600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3079,357 +3259,387 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>377300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>332700</v>
+      </c>
+      <c r="F43" s="3">
         <v>350700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>439300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>366300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>310300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>301200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>391200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>306900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>261100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>294700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>400400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>321200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>268800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>312200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>428600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>225500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>193200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>219500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>329600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>198700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>183100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>221600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>328500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>183900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>326500</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1131400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1051100</v>
+      </c>
+      <c r="F44" s="3">
         <v>939300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>891700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>832100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>738200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>665600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>628800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>675300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>652400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>656200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>714200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>739000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>651700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>620600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>611300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>416700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>358300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>364500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>394800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>439300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>329000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>349000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>341600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>402100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>103300</v>
+      </c>
+      <c r="F45" s="3">
         <v>82900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>69400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>46000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>35100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>43600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>41800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>41200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>34200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>39200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>59900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>51400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>50600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>54200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>50300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>41800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>54100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>38200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>47800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>43000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>37600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>42600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>41300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>36500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1757700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1675400</v>
+      </c>
+      <c r="F46" s="3">
         <v>1604400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1663700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1437300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1489200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1545800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1559500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1456700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1427600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1384200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1374600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1220500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1122900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1130400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1270300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>933900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>894600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>873000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>978200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>900800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>859900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>948100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>976600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>781300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>39300</v>
+      </c>
+      <c r="F47" s="3">
         <v>31400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>30900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>24100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>20700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>19300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>25300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>23000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>19700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>22600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>27800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>25300</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
@@ -3443,11 +3653,11 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3464,162 +3674,180 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>658700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>647800</v>
+      </c>
+      <c r="F48" s="3">
         <v>605200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>588000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>585900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>554700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>529200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>527300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>532600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>546700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>539500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>537900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>504400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>437300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>426400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>425400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>279300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>271500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>249500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>245300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>234400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>235200</v>
-      </c>
-      <c r="X48" s="3">
-        <v>226900</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>224300</v>
       </c>
       <c r="Z48" s="3">
         <v>226900</v>
       </c>
       <c r="AA48" s="3">
+        <v>224300</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>226900</v>
+      </c>
+      <c r="AC48" s="3">
         <v>1060100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1161600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1169100</v>
+      </c>
+      <c r="F49" s="3">
         <v>1178900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1170900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1177700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>841700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>848500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>855200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>832800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>832400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>837500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>844100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>709800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>714600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>700400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>705500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>331100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>330900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>333100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>335400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>308300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>308800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>308900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>310200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>312000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>302900</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3695,8 +3923,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3772,85 +4006,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F52" s="3">
         <v>20100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>25900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>28100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>29800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>25300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>28800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>30100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>26800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>30000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>27200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>31600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>55700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>52500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>64800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>78500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>73900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>79200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>76700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>73200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>89900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>85500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>87700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>82700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3926,85 +4172,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3654900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3556000</v>
+      </c>
+      <c r="F54" s="3">
         <v>3439900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3479300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3253000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2936100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2968000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2996100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2875100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2853200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2813900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2811500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2491600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2330500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2309700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2466000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1622800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1571000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1534800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1635700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1516800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1493800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1569500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1598800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1402900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1384600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4032,8 +4290,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4061,470 +4321,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>475200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>578600</v>
+      </c>
+      <c r="F57" s="3">
         <v>487000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>566800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>474500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>503100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>411400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>421700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>364400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>364000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>268700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>327400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>348000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>319200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>304700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>391700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>281500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>256600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>229000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>303900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>266600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>211800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>211500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>273600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>232400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
         <v>65000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>100000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>100000</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>104200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>100000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>10000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>99900</v>
-      </c>
-      <c r="L58" s="3">
-        <v>108900</v>
       </c>
       <c r="M58" s="3">
         <v>99900</v>
       </c>
       <c r="N58" s="3">
+        <v>108900</v>
+      </c>
+      <c r="O58" s="3">
+        <v>99900</v>
+      </c>
+      <c r="P58" s="3">
         <v>113900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>79900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>99900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>90000</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>13000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>13000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>26300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>23100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>23900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>23000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>512800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>485000</v>
+      </c>
+      <c r="F59" s="3">
         <v>459200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>444000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>411600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>433900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>442800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>467200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>445200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>392000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>419500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>428500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>362400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>357800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>351900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>360100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>283500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>276100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>282600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>335500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>292900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>283800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>309400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>324900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>263700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>479800</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>988000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1063600</v>
+      </c>
+      <c r="F60" s="3">
         <v>1011300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1110700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>986100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>937000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>958400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>988900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>819500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>855800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>797100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>855700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>824300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>757000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>756400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>841800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>565000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>532600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>511700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>652400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>572500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>521800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>543900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>622400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>519100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>463800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1091000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>990800</v>
+      </c>
+      <c r="F61" s="3">
         <v>990600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>991000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>991400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>691200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>587300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>591500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>691400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>691300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>782000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>790900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>601000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>620900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>620800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>721100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>312600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>312500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>312500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>299300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>302500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>305600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>308800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>312000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>315300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>328500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>131800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>149900</v>
+      </c>
+      <c r="F62" s="3">
         <v>151500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>154100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>156100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>156700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>185100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>186300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>184500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>191400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>180700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>179900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>154200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>93100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>88700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>97900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>50900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>56900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>60400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>60700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>61100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>49300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>56900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>56600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>55400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4600,8 +4898,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4677,8 +4981,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4754,85 +5064,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2210800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2204300</v>
+      </c>
+      <c r="F66" s="3">
         <v>2153300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2255800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2133500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1785000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1730900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1766700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1695400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1738400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1759800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1826500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1579600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1471000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1465900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1660700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>928400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>902100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>884500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1012400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>936000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>876700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>909600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>991000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>889900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>834500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4860,8 +5182,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4937,8 +5261,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5014,8 +5344,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5091,8 +5427,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5168,85 +5510,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1368500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1280900</v>
+      </c>
+      <c r="F72" s="3">
         <v>1213600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1146800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1040600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1071900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1157400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1151800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1104300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1041500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>981300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>911500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>837200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>784900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>763900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>724000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>613200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>587300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>568400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>538500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>490400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>534300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>578600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>535600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>443600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>480000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5322,8 +5676,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5399,8 +5759,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5476,85 +5842,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1444200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1351700</v>
+      </c>
+      <c r="F76" s="3">
         <v>1286600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1223500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1119500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1151100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1237200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1229400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1179700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1114800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1054000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>985000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>912100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>859600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>843800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>805300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>694400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>668900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>650200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>623300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>580800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>617100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>659900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>607800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>513000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5630,167 +6008,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44960</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F80" s="2">
         <v>44771</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44680</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44589</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44407</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44225</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43952</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43679</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43588</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43497</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43315</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43224</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43133</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42951</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42860</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42769</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>117600</v>
+      </c>
+      <c r="F81" s="3">
         <v>125200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>131100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>69500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>60100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>96300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>142200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>111300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>72200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>89000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>98400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>70100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>38300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>60600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>115600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>59500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>39000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>79000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>131300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>22600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>33800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>68400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>120500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>45000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5818,85 +6214,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>29800</v>
+      </c>
+      <c r="F83" s="3">
         <v>26100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>28000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>24900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>26500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>23600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>25100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>24100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>25800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>24300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>22800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>22800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>25300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>19000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>27900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>15600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>19400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>11800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>14900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>15200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>17300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>13200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>18000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>16500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5972,8 +6376,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6049,8 +6459,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6126,8 +6542,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6203,8 +6625,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6280,85 +6708,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-68800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>142600</v>
+      </c>
+      <c r="F89" s="3">
         <v>111700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>132900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-90000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>78300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>158500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>223600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>95000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>233500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>235000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>94200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-23300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>78300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>95100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>138000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>26000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>105400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>120900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>130300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>8100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>84100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>106200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>155000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>15400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>80300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6386,85 +6826,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>28700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-24100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-11900</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-15700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-10500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-31400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-19500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-15300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-11800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-36100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-19200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-14200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-38200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-16600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-24600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-10800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-21700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-14300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-32900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-11600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-32200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6540,8 +6988,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6617,85 +7071,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-41700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-25600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-413400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-57800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-21200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-47400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-31400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-21100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-151800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-11800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-28800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-698700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-26800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-38400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-22700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-56100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-10800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-27700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-9600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-10900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-35600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6723,85 +7189,93 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-31400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-31500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-31500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-27800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-28100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-28200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-28400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-27000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-26900</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-26900</v>
       </c>
       <c r="N96" s="3">
         <v>-26900</v>
       </c>
       <c r="O96" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-24100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-24000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-23900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-21200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-21100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-21300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-21400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-18800</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-18900</v>
       </c>
       <c r="Z96" s="3">
         <v>-19000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6877,8 +7351,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6954,8 +7434,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7031,235 +7517,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-120500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-99700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-30900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>293300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-152500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-97100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-111100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-143000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-116800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-24000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>150600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-7500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-40300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-113700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>491800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-38300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-23300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-51900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-88700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-88100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-82900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-32600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-33500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-96300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-64700</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-6200</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="G101" s="3">
-        <v>2200</v>
       </c>
       <c r="H101" s="3">
         <v>-2500</v>
       </c>
       <c r="I101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>3600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>4200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-5500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-1600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-2900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>7800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>1800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-31700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>70300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-212700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-129700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>37700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>64200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-46500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>85800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>194100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>91100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-42900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>8500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-36800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-69900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-39200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>38300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>44800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-13600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-90500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-24800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>69800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>106300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-114700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
@@ -6837,10 +6837,10 @@
         <v>-29300</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-67700</v>
       </c>
       <c r="F91" s="3">
-        <v>28700</v>
+        <v>-47000</v>
       </c>
       <c r="G91" s="3">
         <v>-24100</v>
@@ -6849,10 +6849,10 @@
         <v>-11900</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-56100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1000</v>
+        <v>-22000</v>
       </c>
       <c r="K91" s="3">
         <v>-15700</v>

--- a/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>TTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,376 +665,389 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45051</v>
+      </c>
+      <c r="E7" s="2">
         <v>44960</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44771</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44680</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44589</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44407</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44225</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43952</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43679</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43588</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43497</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43315</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43224</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43133</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42951</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42860</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42769</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1339300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1148800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1172000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1160600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1249500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>932700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>960700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>976800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1149100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>873000</v>
-      </c>
-      <c r="M8" s="3">
-        <v>841000</v>
       </c>
       <c r="N8" s="3">
         <v>841000</v>
       </c>
       <c r="O8" s="3">
+        <v>841000</v>
+      </c>
+      <c r="P8" s="3">
         <v>929400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>767500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>734400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>838700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>962000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>603000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>539300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>655800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>875300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>548200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>488600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>627900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>872800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>515800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>468400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>859600</v>
+      </c>
+      <c r="E9" s="3">
         <v>752900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>773100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>760600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>844100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>632200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>671300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>645700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>746200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>558000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>540600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>546400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>622700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>479400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>489300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>572700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>640700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>387300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>360200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>422200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>551200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>344000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>304400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>401200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>556500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>322400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>479700</v>
+      </c>
+      <c r="E10" s="3">
         <v>395900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>398900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>405400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>289400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>331100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>402900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>315100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>294600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>306700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>288100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>245100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>266000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>321300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>215700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>179100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>233600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>324100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>204200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>184200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>226700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>316300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>193400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1064,8 +1077,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1147,8 +1161,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1230,8 +1247,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1247,29 +1267,29 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>5800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-17100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1313,8 +1333,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1396,8 +1419,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1424,174 +1450,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1120500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1012400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1021600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>997500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1078900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>841000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>886500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>854900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>968400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>731500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>747500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>725000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>803600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>676400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>691100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>764800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>824300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>532900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>496300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>562900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>705000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>481300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>441200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>540200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>713500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>455300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>424800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>218800</v>
+      </c>
+      <c r="E18" s="3">
         <v>136400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>150400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>163100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>170600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>91700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>74200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>121900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>180700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>141500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>93500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>116000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>125800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>91100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>43300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>73900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>137700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>70100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>43000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>92900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>170300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>66900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>47400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>87700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>159300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>60500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1621,191 +1654,198 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E20" s="3">
         <v>9100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2500</v>
       </c>
       <c r="H20" s="3">
         <v>2500</v>
       </c>
       <c r="I20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3600</v>
-      </c>
-      <c r="X20" s="3">
-        <v>4300</v>
       </c>
       <c r="Y20" s="3">
         <v>4300</v>
       </c>
       <c r="Z20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AA20" s="3">
         <v>5400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>3700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>3900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>253400</v>
+      </c>
+      <c r="E21" s="3">
         <v>173700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>184600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>192400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>201100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>119100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>102800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>148100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>209500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>167400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>122400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>143600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>152800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>117100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>77400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>99200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>171700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>90300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>67800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>109700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>188800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>86400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>69000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>106300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>181000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>81000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E22" s="3">
         <v>14100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>7000</v>
       </c>
       <c r="I22" s="3">
         <v>7000</v>
@@ -1814,46 +1854,46 @@
         <v>7000</v>
       </c>
       <c r="K22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L22" s="3">
         <v>7100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4900</v>
-      </c>
-      <c r="V22" s="3">
-        <v>4700</v>
       </c>
       <c r="W22" s="3">
         <v>4700</v>
       </c>
       <c r="X22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="Y22" s="3">
         <v>4800</v>
@@ -1862,182 +1902,191 @@
         <v>4800</v>
       </c>
       <c r="AA22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="AB22" s="3">
         <v>4700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>4900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>210800</v>
+      </c>
+      <c r="E23" s="3">
         <v>131300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>143300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>157100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>165100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>87100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>69300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>117500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>177200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>135800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>88600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>111000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>121400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>86100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>43700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>71200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>137200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>70000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>43600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>93300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>169200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>66400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>46900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>88400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>158300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>59600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E24" s="3">
         <v>24500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>25700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>31900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>33900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>17600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>21100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>16000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>14800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>37900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>10700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>13100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>20000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>37800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>14600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2119,174 +2168,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>167500</v>
+      </c>
+      <c r="E26" s="3">
         <v>106900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>117600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>125200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>131100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>69500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>60100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>96300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>142200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>111300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>72200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>89000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>98400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>70100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>38200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>59700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>115600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>59500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>39100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>78500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>131300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>55700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>33800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>68400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>120500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>45000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>167500</v>
+      </c>
+      <c r="E27" s="3">
         <v>106900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>117600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>125200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>131100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>69500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>60100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>96300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>142200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>111300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>72200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>89000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>98400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>70100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>38200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>59700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>115600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>59500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>39100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>78500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>131300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>55700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>33800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>68400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>120500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>45000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2368,8 +2426,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2394,8 +2455,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2412,32 +2473,32 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>900</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>500</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-33100</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2451,8 +2512,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2534,8 +2598,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2617,174 +2684,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-2500</v>
       </c>
       <c r="H32" s="3">
         <v>-2500</v>
       </c>
       <c r="I32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3600</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-4300</v>
       </c>
       <c r="Y32" s="3">
         <v>-4300</v>
       </c>
       <c r="Z32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-3900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>167500</v>
+      </c>
+      <c r="E33" s="3">
         <v>106900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>117600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>125200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>131100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>69500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>60100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>96300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>142200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>111300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>72200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>89000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>98400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>70100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>38300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>60600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>115600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>59500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>39000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>79000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>131300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>22600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>33800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>68400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>120500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>45000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2866,179 +2942,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>167500</v>
+      </c>
+      <c r="E35" s="3">
         <v>106900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>117600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>125200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>131100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>69500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>60100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>96300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>142200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>111300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>72200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>89000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>98400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>70100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>38300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>60600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>115600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>59500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>39000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>79000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>131300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>22600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>33800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>68400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>120500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>45000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45051</v>
+      </c>
+      <c r="E38" s="2">
         <v>44960</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44771</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44680</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44589</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44407</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44225</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43952</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43679</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43588</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43497</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43315</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43224</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43133</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42951</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42860</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42769</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3068,8 +3153,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3099,91 +3185,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>151300</v>
+      </c>
+      <c r="E41" s="3">
         <v>174000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>188300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>231600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>263200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>193000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>405600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>535300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>497600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>433400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>479900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>394100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>108900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>151800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>143300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>180100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>250000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>289100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>250900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>206100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>219700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>310300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>335000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>265200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>158900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>273600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3265,384 +3355,399 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>462000</v>
+      </c>
+      <c r="E43" s="3">
         <v>377300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>332700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>350700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>439300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>366300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>310300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>301200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>391200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>306900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>261100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>294700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>321200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>268800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>312200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>428600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>225500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>193200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>219500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>329600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>198700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>183100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>221600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>328500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>183900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>326500</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1127500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1131400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1051100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>939300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>891700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>832100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>738200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>665600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>628800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>675300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>652400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>656200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>714200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>739000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>651700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>620600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>611300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>416700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>358300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>364500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>394800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>439300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>329000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>349000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>341600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>402100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E45" s="3">
         <v>75000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>103300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>82900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>69400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>46000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>35100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>43600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>41800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>41200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>34200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>39200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>59900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>51400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>50600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>54200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>50300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>41800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>54100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>38200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>47800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>43000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>37600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>42600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>41300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>36500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1826800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1757700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1675400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1604400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1663700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1437300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1489200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1545800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1559500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1456700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1427600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1384200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1374600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1220500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1122900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1130400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1270300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>933900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>894600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>873000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>978200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>900800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>859900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>948100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>976600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>781300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E47" s="3">
         <v>45700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>39300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>31400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>30900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>24100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>20700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>19300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>23000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>19700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>22600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>27800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>25300</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
@@ -3659,8 +3764,8 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3680,174 +3785,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>677600</v>
+      </c>
+      <c r="E48" s="3">
         <v>658700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>647800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>605200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>588000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>585900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>554700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>529200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>527300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>532600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>546700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>539500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>537900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>504400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>437300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>426400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>425400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>279300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>271500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>249500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>245300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>234400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>235200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>226900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>224300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>226900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1060100</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1153000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1161600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1169100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1178900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1170900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1177700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>841700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>848500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>855200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>832800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>832400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>837500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>844100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>709800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>714600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>700400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>705500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>331100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>330900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>333100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>335400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>308300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>308800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>308900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>310200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>312000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>302900</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3929,8 +4043,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4012,91 +4129,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E52" s="3">
         <v>31200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>24400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>28100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>29800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>25300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>28800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>30100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>26800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>30000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>27200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>31600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>55700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>52500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>64800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>78500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>73900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>79200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>76700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>73200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>89900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>85500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>87700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>82700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4178,91 +4301,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3741400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3654900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3556000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3439900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3479300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3253000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2936100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2968000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2996100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2875100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2853200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2813900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2811500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2491600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2330500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2309700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2466000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1622800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1571000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1534800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1635700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1516800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1493800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1569500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1598800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1402900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1384600</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4292,8 +4421,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4323,145 +4453,149 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>514800</v>
+      </c>
+      <c r="E57" s="3">
         <v>475200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>578600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>487000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>566800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>474500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>503100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>411400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>421700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>364400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>364000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>268700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>327400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>348000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>319200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>304700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>391700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>281500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>256600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>229000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>303900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>266600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>211800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>211500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>273600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>232400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>65000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100000</v>
       </c>
       <c r="H58" s="3">
         <v>100000</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>104200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>99900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>108900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>99900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>113900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>79900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>99900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>90000</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
@@ -4469,360 +4603,375 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>13000</v>
       </c>
       <c r="Y58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="Z58" s="3">
         <v>26300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>23100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>23900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>23000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>509200</v>
+      </c>
+      <c r="E59" s="3">
         <v>512800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>485000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>459200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>444000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>411600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>433900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>442800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>467200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>445200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>392000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>419500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>428500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>362400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>357800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>351900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>360100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>283500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>276100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>282600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>335500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>292900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>283800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>309400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>324900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>263700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>479800</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1024000</v>
+      </c>
+      <c r="E60" s="3">
         <v>988000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1063600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1011300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1110700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>986100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>937000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>958400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>988900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>819500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>855800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>797100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>855700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>824300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>757000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>756400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>841800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>565000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>532600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>511700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>652400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>572500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>521800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>543900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>622400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>519100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>463800</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1041200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1091000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>990800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>990600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>991000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>991400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>691200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>587300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>591500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>691400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>691300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>782000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>790900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>601000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>620900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>620800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>721100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>312600</v>
-      </c>
-      <c r="U61" s="3">
-        <v>312500</v>
       </c>
       <c r="V61" s="3">
         <v>312500</v>
       </c>
       <c r="W61" s="3">
+        <v>312500</v>
+      </c>
+      <c r="X61" s="3">
         <v>299300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>302500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>305600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>308800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>312000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>315300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>328500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>116200</v>
+      </c>
+      <c r="E62" s="3">
         <v>131800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>149900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>151500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>154100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>156100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>156700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>185100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>186300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>184500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>191400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>180700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>179900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>154200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>93100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>88700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>97900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>50900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>56900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>60400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>60700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>61100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>49300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>56900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>56600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>55400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4904,8 +5053,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4987,8 +5139,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5070,91 +5225,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2181400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2210800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2204300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2153300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2255800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2133500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1785000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1730900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1766700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1695400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1738400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1759800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1826500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1579600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1471000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1465900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1660700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>928400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>902100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>884500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1012400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>936000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>876700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>909600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>991000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>889900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>834500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5184,8 +5345,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5267,8 +5429,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5350,8 +5515,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5433,8 +5601,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5516,91 +5687,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1485000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1368500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1280900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1213600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1146800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1040600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1071900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1157400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1151800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1104300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1041500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>981300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>911500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>837200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>784900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>763900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>724000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>613200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>587300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>568400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>538500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>490400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>534300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>578600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>535600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>443600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>480000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5682,8 +5859,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5765,8 +5945,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5848,91 +6031,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1560000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1444200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1351700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1286600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1223500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1119500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1151100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1237200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1229400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1179700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1114800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1054000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>985000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>912100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>859600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>843800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>805300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>694400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>668900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>650200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>623300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>580800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>617100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>659900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>607800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>513000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6014,179 +6203,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45051</v>
+      </c>
+      <c r="E80" s="2">
         <v>44960</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44771</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44680</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44589</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44407</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44225</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43952</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43679</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43588</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43497</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43315</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43224</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43133</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42951</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42860</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42769</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>167500</v>
+      </c>
+      <c r="E81" s="3">
         <v>106900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>117600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>125200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>131100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>69500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>60100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>96300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>142200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>111300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>72200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>89000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>98400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>70100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>38300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>60600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>115600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>59500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>39000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>79000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>131300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>22600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>33800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>68400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>120500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>45000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6216,91 +6414,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E83" s="3">
         <v>28300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>29800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>26100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>28000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>24900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>26500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>23600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>25100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>24100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>25800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>24300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>22800</v>
       </c>
       <c r="P83" s="3">
         <v>22800</v>
       </c>
       <c r="Q83" s="3">
+        <v>22800</v>
+      </c>
+      <c r="R83" s="3">
         <v>25300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>27900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>19400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>14900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>15200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>17300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>13200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>18000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>16500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6382,8 +6584,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6465,8 +6670,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6548,8 +6756,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6631,8 +6842,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6714,91 +6928,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>130500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-68800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>142600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>111700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>132900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-90000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>78300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>158500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>223600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>95000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>233500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>235000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>94200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>78300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>95100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>138000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>26000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>105400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>120900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>130300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>8100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>84100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>106200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>155000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>15400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>80300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6828,91 +7048,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-67700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-47000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-24100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-56100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-22000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-36100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-19200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-38200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-16600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-24600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-10800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-21700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-14300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-32900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-11600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-32200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6994,8 +7218,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7077,91 +7304,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-67700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-41700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-413400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-57800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-47400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-31400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-151800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-28800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-18600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-698700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-26800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-38400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-22700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-56100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-10800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-27700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-9600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-10900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-35600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7191,43 +7424,44 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-35500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-31300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-31400</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-31500</v>
       </c>
       <c r="H96" s="3">
         <v>-31500</v>
       </c>
       <c r="I96" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="J96" s="3">
         <v>-27800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-28100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-28200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-28400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-27000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-26900</v>
       </c>
       <c r="O96" s="3">
         <v>-26900</v>
@@ -7236,46 +7470,49 @@
         <v>-26900</v>
       </c>
       <c r="Q96" s="3">
-        <v>-24100</v>
+        <v>-26900</v>
       </c>
       <c r="R96" s="3">
         <v>-24100</v>
       </c>
       <c r="S96" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="T96" s="3">
         <v>-24000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-23900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-21200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-21100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-21300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-21400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-18800</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-19000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-18900</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-19000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7357,8 +7594,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7440,8 +7680,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7523,253 +7766,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-106600</v>
+      </c>
+      <c r="E100" s="3">
         <v>74400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-120500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-99700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-30900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>293300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-152500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-97100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-111100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-143000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-116800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-24000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>150600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-40300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-113700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>491800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-38300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-23300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-51900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-88700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-88100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-82900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-32600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-33500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-96300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-64700</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2200</v>
+        <v>-5900</v>
       </c>
       <c r="E101" s="3">
         <v>2200</v>
       </c>
       <c r="F101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>7800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-43300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-31700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>70300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-212700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-129700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>37700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>64200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-46500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>85800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>194100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>91100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-42900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-36800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-69900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-39200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>38300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>44800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-13600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-90500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-24800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>69800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>106300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-114700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>TTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,389 +665,402 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45142</v>
+      </c>
+      <c r="E7" s="2">
         <v>45051</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44960</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44771</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44680</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44589</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44407</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44225</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43952</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43679</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43588</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43497</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43315</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43224</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43133</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42951</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42860</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42769</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1081800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1339300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1148800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1172000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1160600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1249500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>932700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>960700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>976800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1149100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>873000</v>
-      </c>
-      <c r="N8" s="3">
-        <v>841000</v>
       </c>
       <c r="O8" s="3">
         <v>841000</v>
       </c>
       <c r="P8" s="3">
+        <v>841000</v>
+      </c>
+      <c r="Q8" s="3">
         <v>929400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>767500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>734400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>838700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>962000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>603000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>539300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>655800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>875300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>548200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>488600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>627900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>872800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>515800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>468400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>709400</v>
+      </c>
+      <c r="E9" s="3">
         <v>859600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>752900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>773100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>760600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>844100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>632200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>671300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>645700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>746200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>558000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>540600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>546400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>622700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>479400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>489300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>572700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>640700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>387300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>360200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>422200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>551200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>344000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>304400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>401200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>556500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>322400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>372400</v>
+      </c>
+      <c r="E10" s="3">
         <v>479700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>395900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>398900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>405400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>289400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>331100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>402900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>315100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>294600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>306700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>288100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>245100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>266000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>321300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>215700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>179100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>233600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>324100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>204200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>184200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>226700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>316300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>193400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1078,8 +1091,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1164,8 +1178,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1250,13 +1267,16 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>151300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1270,29 +1290,29 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>5800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-17100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1336,8 +1356,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1422,8 +1445,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1451,180 +1477,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1120500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1012400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1021600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>997500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1078900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>841000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>886500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>854900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>968400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>731500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>747500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>725000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>803600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>676400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>691100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>764800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>824300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>532900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>496300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>562900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>705000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>481300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>441200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>540200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>713500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>455300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>424800</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E18" s="3">
         <v>218800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>136400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>150400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>163100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>170600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>91700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>74200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>121900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>180700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>141500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>93500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>116000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>125800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>91100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>43300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>73900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>137700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>70100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>43000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>92900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>170300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>66900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>47400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>87700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>159300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>60500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1655,200 +1688,207 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E20" s="3">
         <v>6800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2500</v>
       </c>
       <c r="I20" s="3">
         <v>2500</v>
       </c>
       <c r="J20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3600</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>4300</v>
       </c>
       <c r="Z20" s="3">
         <v>4300</v>
       </c>
       <c r="AA20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AB20" s="3">
         <v>5400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>3700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>3900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E21" s="3">
         <v>253400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>173700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>184600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>192400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>201100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>119100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>102800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>148100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>209500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>167400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>122400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>143600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>152800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>117100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>77400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>99200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>171700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>90300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>67800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>109700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>188800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>86400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>69000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>106300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>181000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>81000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E22" s="3">
         <v>14700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>14100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>7000</v>
       </c>
       <c r="J22" s="3">
         <v>7000</v>
@@ -1857,46 +1897,46 @@
         <v>7000</v>
       </c>
       <c r="L22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M22" s="3">
         <v>7100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4900</v>
-      </c>
-      <c r="W22" s="3">
-        <v>4700</v>
       </c>
       <c r="X22" s="3">
         <v>4700</v>
       </c>
       <c r="Y22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="Z22" s="3">
         <v>4800</v>
@@ -1905,188 +1945,197 @@
         <v>4800</v>
       </c>
       <c r="AB22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="AC22" s="3">
         <v>4700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>4900</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="E23" s="3">
         <v>210800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>131300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>143300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>157100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>165100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>87100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>69300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>117500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>177200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>135800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>88600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>111000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>121400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>86100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>43700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>71200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>137200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>70000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>43600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>93300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>169200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>66400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>46900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>88400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>158300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>59600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E24" s="3">
         <v>43400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>25700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>31900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>33900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>17600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>24500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>16000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>14800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>37900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>10700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>13100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>20000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>37800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>14600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2171,180 +2220,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E26" s="3">
         <v>167500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>106900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>117600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>125200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>131100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>69500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>60100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>96300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>142200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>111300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>72200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>89000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>98400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>70100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>38200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>59700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>115600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>59500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>39100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>78500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>131300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>55700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>33800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>68400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>120500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>45000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E27" s="3">
         <v>167500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>106900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>117600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>125200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>131100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>69500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>60100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>96300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>142200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>111300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>72200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>89000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>98400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>70100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>38200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>59700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>115600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>59500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>39100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>78500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>131300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>55700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>33800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>68400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>120500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>45000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2429,8 +2487,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2458,8 +2519,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2476,32 +2537,32 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>900</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>500</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-33100</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2515,8 +2576,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2601,8 +2665,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2687,180 +2754,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-2500</v>
       </c>
       <c r="I32" s="3">
         <v>-2500</v>
       </c>
       <c r="J32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3600</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-4300</v>
       </c>
       <c r="Z32" s="3">
         <v>-4300</v>
       </c>
       <c r="AA32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-5400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-3900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E33" s="3">
         <v>167500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>106900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>117600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>125200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>131100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>69500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>60100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>96300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>142200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>111300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>72200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>89000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>98400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>70100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>38300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>60600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>115600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>59500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>39000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>79000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>131300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>22600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>33800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>68400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>120500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>45000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2945,185 +3021,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E35" s="3">
         <v>167500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>106900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>117600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>125200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>131100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>69500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>60100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>96300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>142200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>111300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>72200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>89000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>98400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>70100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>38300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>60600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>115600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>59500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>39000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>79000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>131300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>22600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>33800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>68400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>120500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>45000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45142</v>
+      </c>
+      <c r="E38" s="2">
         <v>45051</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44960</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44771</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44680</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44589</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44407</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44225</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43952</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43679</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43588</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43497</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43315</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43224</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43133</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42951</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42860</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42769</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3154,8 +3239,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3186,94 +3272,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>147900</v>
+      </c>
+      <c r="E41" s="3">
         <v>151300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>174000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>188300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>231600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>263200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>193000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>405600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>535300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>497600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>433400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>479900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>394100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>108900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>151800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>143300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>180100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>250000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>289100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>250900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>206100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>219700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>310300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>335000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>265200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>158900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>273600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3358,399 +3448,414 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>390700</v>
+      </c>
+      <c r="E43" s="3">
         <v>462000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>377300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>332700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>350700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>439300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>366300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>310300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>301200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>391200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>306900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>261100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>294700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>321200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>268800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>312200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>428600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>225500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>193200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>219500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>329600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>198700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>183100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>221600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>328500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>183900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>326500</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1112700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1127500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1131400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1051100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>939300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>891700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>832100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>738200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>665600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>628800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>675300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>652400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>656200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>714200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>739000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>651700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>620600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>611300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>416700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>358300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>364500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>394800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>439300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>329000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>349000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>341600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>402100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E45" s="3">
         <v>86100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>75000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>103300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>82900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>69400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>46000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>35100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>43600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>41800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>41200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>34200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>39200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>59900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>51400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>50600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>54200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>50300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>41800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>54100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>38200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>47800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>43000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>37600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>42600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>41300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>36500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1731800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1826800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1757700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1675400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1604400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1663700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1437300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1489200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1545800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1559500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1456700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1427600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1384200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1374600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1220500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1122900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1130400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1270300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>933900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>894600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>873000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>978200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>900800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>859900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>948100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>976600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>781300</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E47" s="3">
         <v>53200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>45700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>39300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>31400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>30900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>24100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>20700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>19300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>23000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>19700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>22600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>27800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>25300</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
@@ -3767,8 +3872,8 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3788,180 +3893,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>741600</v>
+      </c>
+      <c r="E48" s="3">
         <v>677600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>658700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>647800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>605200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>588000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>585900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>554700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>529200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>527300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>532600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>546700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>539500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>537900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>504400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>437300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>426400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>425400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>279300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>271500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>249500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>245300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>234400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>235200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>226900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>224300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>226900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1060100</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1000500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1153000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1161600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1169100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1178900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1170900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1177700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>841700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>848500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>855200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>832800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>832400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>837500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>844100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>709800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>714600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>700400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>705500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>331100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>330900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>333100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>335400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>308300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>308800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>308900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>310200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>312000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>302900</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4046,8 +4160,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4132,94 +4249,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E52" s="3">
         <v>30700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>31200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>24400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>25900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>28100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>29800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>28800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>30100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>30000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>27200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>31600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>55700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>52500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>64800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>78500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>73900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>79200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>76700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>73200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>89900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>85500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>87700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>82700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4304,94 +4427,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3585900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3741400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3654900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3556000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3439900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3479300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3253000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2936100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2968000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2996100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2875100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2853200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2813900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2811500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2491600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2330500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2309700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2466000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1622800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1571000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1534800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1635700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1516800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1493800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1569500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1598800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1402900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1384600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4422,8 +4551,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4454,94 +4584,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>407400</v>
+      </c>
+      <c r="E57" s="3">
         <v>514800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>475200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>578600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>487000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>566800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>474500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>503100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>411400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>421700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>364400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>364000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>268700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>327400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>348000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>319200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>304700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>391700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>281500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>256600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>229000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>303900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>266600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>211800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>211500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>273600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>232400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4551,54 +4685,54 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>65000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100000</v>
       </c>
       <c r="I58" s="3">
         <v>100000</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>104200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>100000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>99900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>108900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>99900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>113900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>79900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>99900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>90000</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
@@ -4606,372 +4740,387 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="3">
         <v>13000</v>
       </c>
       <c r="Z58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="AA58" s="3">
         <v>26300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>23100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>23900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>23000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500100</v>
+      </c>
+      <c r="E59" s="3">
         <v>509200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>512800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>485000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>459200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>444000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>411600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>433900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>442800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>467200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>445200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>392000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>419500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>428500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>362400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>357800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>351900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>360100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>283500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>276100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>282600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>335500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>292900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>283800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>309400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>324900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>263700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>479800</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>907500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1024000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>988000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1063600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1011300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1110700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>986100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>937000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>958400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>988900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>819500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>855800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>797100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>855700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>824300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>757000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>756400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>841800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>565000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>532600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>511700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>652400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>572500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>521800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>543900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>622400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>519100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>463800</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1061300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1041200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1091000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>990800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>990600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>991000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>991400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>691200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>587300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>591500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>691400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>691300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>782000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>790900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>601000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>620900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>620800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>721100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>312600</v>
-      </c>
-      <c r="V61" s="3">
-        <v>312500</v>
       </c>
       <c r="W61" s="3">
         <v>312500</v>
       </c>
       <c r="X61" s="3">
+        <v>312500</v>
+      </c>
+      <c r="Y61" s="3">
         <v>299300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>302500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>305600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>308800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>312000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>315300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>328500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E62" s="3">
         <v>116200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>131800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>149900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>151500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>154100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>156100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>156700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>185100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>186300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>184500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>191400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>180700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>179900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>154200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>93100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>88700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>97900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>50900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>56900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>60400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>60700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>61100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>49300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>56900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>56600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>55400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5056,8 +5205,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5142,8 +5294,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5228,94 +5383,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2108800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2181400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2210800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2204300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2153300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2255800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2133500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1785000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1730900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1766700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1695400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1738400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1759800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1826500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1579600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1471000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1465900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1660700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>928400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>902100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>884500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1012400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>936000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>876700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>909600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>991000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>889900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>834500</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5346,8 +5507,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5432,8 +5594,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5518,8 +5683,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5604,8 +5772,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5690,94 +5861,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1403800</v>
+      </c>
+      <c r="E72" s="3">
         <v>1485000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1368500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1280900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1213600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1146800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1040600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1071900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1157400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1151800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1104300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1041500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>981300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>911500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>837200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>784900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>763900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>724000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>613200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>587300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>568400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>538500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>490400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>534300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>578600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>535600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>443600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>480000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5862,8 +6039,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5948,8 +6128,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6034,94 +6217,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1477100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1560000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1444200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1351700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1286600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1223500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1119500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1151100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1237200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1229400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1179700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1114800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1054000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>985000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>912100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>859600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>843800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>805300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>694400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>668900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>650200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>623300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>580800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>617100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>659900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>607800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>513000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6206,185 +6395,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45142</v>
+      </c>
+      <c r="E80" s="2">
         <v>45051</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44960</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44771</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44680</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44589</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44407</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44225</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43952</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43679</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43588</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43497</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43315</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43224</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43133</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42951</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42860</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42769</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E81" s="3">
         <v>167500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>106900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>117600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>125200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>131100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>69500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>60100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>96300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>142200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>111300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>72200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>89000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>98400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>70100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>38300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>60600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>115600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>59500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>39000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>79000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>131300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>22600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>33800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>68400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>120500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>45000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6415,94 +6613,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E83" s="3">
         <v>27900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>28300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>29800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>26100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>28000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>24900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>26500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>23600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>25100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>24100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>25800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>24300</v>
-      </c>
-      <c r="P83" s="3">
-        <v>22800</v>
       </c>
       <c r="Q83" s="3">
         <v>22800</v>
       </c>
       <c r="R83" s="3">
+        <v>22800</v>
+      </c>
+      <c r="S83" s="3">
         <v>25300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>27900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>19400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>14900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>15200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>17300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>13200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>18000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>16500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6587,8 +6789,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6673,8 +6878,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6759,8 +6967,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6845,8 +7056,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6931,94 +7145,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E89" s="3">
         <v>130500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-68800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>142600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>111700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>132900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-90000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>78300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>158500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>223600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>95000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>233500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>235000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>94200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-23300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>78300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>95100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>138000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>26000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>105400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>120900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>130300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>8100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>84100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>106200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>155000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>15400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>80300</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7049,94 +7269,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-40700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-67700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-47000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-24100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-56100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-19200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-14200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-38200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-16600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-24600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-10800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-21700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-14300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-32900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-11600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-32200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7221,8 +7445,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7307,94 +7534,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-40700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-67700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-41700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-413400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-57800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-47400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-31400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-151800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-28800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-18600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-698700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-26800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-38400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-22700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-56100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-10800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-27700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-9600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-10900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-35600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7425,46 +7658,47 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-35600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-35500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-31300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-31400</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-31500</v>
       </c>
       <c r="I96" s="3">
         <v>-31500</v>
       </c>
       <c r="J96" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-27800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-28100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-28200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-28400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-27000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-26900</v>
       </c>
       <c r="P96" s="3">
         <v>-26900</v>
@@ -7473,46 +7707,49 @@
         <v>-26900</v>
       </c>
       <c r="R96" s="3">
-        <v>-24100</v>
+        <v>-26900</v>
       </c>
       <c r="S96" s="3">
         <v>-24100</v>
       </c>
       <c r="T96" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="U96" s="3">
         <v>-24000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-23900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-21200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-21100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-21300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-21400</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-18800</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-19000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-18900</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-19000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7597,8 +7834,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7683,8 +7923,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7769,262 +8012,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-106600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>74400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-120500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-99700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-30900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>293300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-152500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-97100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-111100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-143000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-116800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-24000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>150600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-40300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-113700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>491800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-38300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-23300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-51900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-88700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-88100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-82900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-32600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-33500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-96300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-64700</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5900</v>
-      </c>
-      <c r="E101" s="3">
-        <v>2200</v>
       </c>
       <c r="F101" s="3">
         <v>2200</v>
       </c>
       <c r="G101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-5500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>7800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-1700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>1800</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-22700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-43300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-31700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>70300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-212700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-129700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>37700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>64200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-46500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>85800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>194100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>91100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-42900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-36800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-69900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-39200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>38300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>44800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-13600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-90500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-24800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>69800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>106300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-114700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-3700</v>
       </c>
     </row>
